--- a/docs/instructions.xlsx
+++ b/docs/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdubec/Projects/BinksDisassembler/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F84147-25B1-1B44-BD11-5C6F17E5EEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A1CF2E-2C52-F541-B241-FF51173527B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{90C12BCA-53E9-6246-81F7-B6E9E4DCCD29}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{90C12BCA-53E9-6246-81F7-B6E9E4DCCD29}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Instructions!$A$1:$AH$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Instructions sorted'!$A$1:$AH$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Instructions sorted'!$A$1:$AH$235</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="408">
   <si>
     <t>Name</t>
   </si>
@@ -1262,9 +1262,6 @@
   </si>
   <si>
     <t>3. check</t>
-  </si>
-  <si>
-    <t>Implemented</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1463,7 +1460,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1472,7 +1469,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1496,7 +1493,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14627,22 +14623,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D692C14-9922-9048-BEF4-01A8862F3B60}">
-  <dimension ref="A1:AI260"/>
+  <dimension ref="A1:AH260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI69" sqref="AI69"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S24" sqref="S24:W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="6.83203125" customWidth="1"/>
-    <col min="35" max="35" width="14.83203125" customWidth="1"/>
+    <col min="3" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" customWidth="1"/>
+    <col min="14" max="24" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="34" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>194</v>
       </c>
@@ -14745,11 +14743,8 @@
       <c r="AH1" s="11">
         <v>0</v>
       </c>
-      <c r="AI1" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="28" t="s">
@@ -14786,16 +14781,15 @@
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
       <c r="AH2" s="29"/>
-      <c r="AI2" s="33"/>
-    </row>
-    <row r="3" spans="1:35" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:34" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>103</v>
       </c>
       <c r="D3" s="23"/>
@@ -14829,18 +14823,15 @@
       <c r="AF3" s="23"/>
       <c r="AG3" s="23"/>
       <c r="AH3" s="23"/>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>195</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="23"/>
@@ -14874,18 +14865,15 @@
       <c r="AF4" s="23"/>
       <c r="AG4" s="23"/>
       <c r="AH4" s="23"/>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>195</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>121</v>
       </c>
       <c r="D5" s="23"/>
@@ -14919,18 +14907,15 @@
       <c r="AF5" s="23"/>
       <c r="AG5" s="23"/>
       <c r="AH5" s="23"/>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>195</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>187</v>
       </c>
       <c r="D6" s="23"/>
@@ -14967,14 +14952,14 @@
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>195</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="23"/>
@@ -15011,14 +14996,14 @@
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>195</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>136</v>
       </c>
       <c r="D8" s="23"/>
@@ -15057,14 +15042,14 @@
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>195</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
         <v>172</v>
       </c>
       <c r="D9" s="23"/>
@@ -15103,14 +15088,14 @@
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>195</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="22" t="s">
         <v>152</v>
       </c>
       <c r="D10" s="23"/>
@@ -15149,14 +15134,14 @@
       <c r="AG10" s="16"/>
       <c r="AH10" s="16"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>195</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="22" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="23"/>
@@ -15195,14 +15180,14 @@
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>195</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>167</v>
       </c>
       <c r="D12" s="23"/>
@@ -15241,14 +15226,14 @@
       <c r="AG12" s="16"/>
       <c r="AH12" s="16"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>195</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>160</v>
       </c>
       <c r="D13" s="23"/>
@@ -15287,14 +15272,14 @@
       <c r="AG13" s="16"/>
       <c r="AH13" s="16"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>195</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="22" t="s">
         <v>148</v>
       </c>
       <c r="D14" s="23"/>
@@ -15333,14 +15318,14 @@
       <c r="AG14" s="16"/>
       <c r="AH14" s="16"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>195</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="23"/>
@@ -15379,14 +15364,14 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="16"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>195</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>164</v>
       </c>
       <c r="D16" s="23"/>
@@ -15432,7 +15417,7 @@
       <c r="B17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="22" t="s">
         <v>156</v>
       </c>
       <c r="D17" s="23"/>
@@ -15478,7 +15463,7 @@
       <c r="B18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="22" t="s">
         <v>134</v>
       </c>
       <c r="D18" s="23"/>
@@ -15524,7 +15509,7 @@
       <c r="B19" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="22" t="s">
         <v>170</v>
       </c>
       <c r="D19" s="23"/>
@@ -15570,7 +15555,7 @@
       <c r="B20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>150</v>
       </c>
       <c r="D20" s="23"/>
@@ -15616,7 +15601,7 @@
       <c r="B21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D21" s="23"/>
@@ -15662,7 +15647,7 @@
       <c r="B22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="22" t="s">
         <v>165</v>
       </c>
       <c r="D22" s="23"/>
@@ -15708,7 +15693,7 @@
       <c r="B23" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="22" t="s">
         <v>158</v>
       </c>
       <c r="D23" s="23"/>
@@ -15754,7 +15739,7 @@
       <c r="B24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="22" t="s">
         <v>146</v>
       </c>
       <c r="D24" s="23"/>
@@ -15800,7 +15785,7 @@
       <c r="B25" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="22" t="s">
         <v>138</v>
       </c>
       <c r="D25" s="23"/>
@@ -15846,7 +15831,7 @@
       <c r="B26" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>162</v>
       </c>
       <c r="D26" s="23"/>
@@ -15892,7 +15877,7 @@
       <c r="B27" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>154</v>
       </c>
       <c r="D27" s="23"/>
@@ -15938,7 +15923,7 @@
       <c r="B28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>116</v>
       </c>
       <c r="D28" s="23"/>
@@ -15982,7 +15967,7 @@
       <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="22" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="23"/>
@@ -16026,7 +16011,7 @@
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="22" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="23"/>
@@ -16204,7 +16189,7 @@
       <c r="B34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="22" t="s">
         <v>93</v>
       </c>
       <c r="D34" s="23"/>
@@ -16252,7 +16237,7 @@
       <c r="B35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="22" t="s">
         <v>93</v>
       </c>
       <c r="D35" s="23"/>
@@ -16271,25 +16256,25 @@
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16"/>
-      <c r="R35" s="22" t="s">
+      <c r="R35" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="22"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -16298,7 +16283,7 @@
       <c r="B36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="22" t="s">
         <v>69</v>
       </c>
       <c r="D36" s="23"/>
@@ -16342,7 +16327,7 @@
       <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="22" t="s">
         <v>65</v>
       </c>
       <c r="D37" s="23"/>
@@ -16386,7 +16371,7 @@
       <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="23"/>
@@ -16428,7 +16413,7 @@
       <c r="B39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="23"/>
@@ -16470,7 +16455,7 @@
       <c r="B40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="23"/>
@@ -16512,7 +16497,7 @@
       <c r="B41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="23"/>
@@ -16698,7 +16683,7 @@
       <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D45" s="23"/>
@@ -16740,7 +16725,7 @@
       <c r="B46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="22" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="23"/>
@@ -16782,7 +16767,7 @@
       <c r="B47" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="23"/>
@@ -16824,7 +16809,7 @@
       <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="23"/>
@@ -16962,7 +16947,7 @@
       <c r="B51" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D51" s="23"/>
@@ -17010,7 +16995,7 @@
       <c r="B52" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="23"/>
@@ -17058,7 +17043,7 @@
       <c r="B53" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="22" t="s">
         <v>79</v>
       </c>
       <c r="D53" s="23"/>
@@ -17106,7 +17091,7 @@
       <c r="B54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="22" t="s">
         <v>80</v>
       </c>
       <c r="D54" s="23"/>
@@ -17154,7 +17139,7 @@
       <c r="B55" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="22" t="s">
         <v>83</v>
       </c>
       <c r="D55" s="23"/>
@@ -17202,7 +17187,7 @@
       <c r="B56" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="22" t="s">
         <v>85</v>
       </c>
       <c r="D56" s="23"/>
@@ -17250,7 +17235,7 @@
       <c r="B57" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="22" t="s">
         <v>87</v>
       </c>
       <c r="D57" s="23"/>
@@ -17298,7 +17283,7 @@
       <c r="B58" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D58" s="23"/>
@@ -17344,7 +17329,7 @@
       <c r="B59" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="22" t="s">
         <v>97</v>
       </c>
       <c r="D59" s="23"/>
@@ -17392,7 +17377,7 @@
       <c r="B60" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D60" s="23"/>
@@ -17442,7 +17427,7 @@
       <c r="B61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="22" t="s">
         <v>112</v>
       </c>
       <c r="D61" s="23"/>
@@ -17490,7 +17475,7 @@
       <c r="B62" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="22" t="s">
         <v>119</v>
       </c>
       <c r="D62" s="23"/>
@@ -17538,7 +17523,7 @@
       <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="22" t="s">
         <v>123</v>
       </c>
       <c r="D63" s="23"/>
@@ -17580,7 +17565,7 @@
       <c r="B64" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="22" t="s">
         <v>130</v>
       </c>
       <c r="D64" s="23"/>
@@ -17630,7 +17615,7 @@
       <c r="B65" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="22" t="s">
         <v>132</v>
       </c>
       <c r="D65" s="23"/>
@@ -17680,7 +17665,7 @@
       <c r="B66" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="22" t="s">
         <v>174</v>
       </c>
       <c r="D66" s="23"/>
@@ -17730,7 +17715,7 @@
       <c r="B67" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="22" t="s">
         <v>127</v>
       </c>
       <c r="D67" s="23"/>
@@ -17760,10 +17745,10 @@
       <c r="X67" s="16"/>
       <c r="Y67" s="16"/>
       <c r="Z67" s="16"/>
-      <c r="AA67" s="22" t="s">
+      <c r="AA67" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AB67" s="22"/>
+      <c r="AB67" s="25"/>
       <c r="AC67" s="16" t="s">
         <v>128</v>
       </c>
@@ -17780,7 +17765,7 @@
       <c r="B68" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="22" t="s">
         <v>127</v>
       </c>
       <c r="D68" s="23"/>
@@ -17810,10 +17795,10 @@
       <c r="X68" s="16"/>
       <c r="Y68" s="16"/>
       <c r="Z68" s="16"/>
-      <c r="AA68" s="22" t="s">
+      <c r="AA68" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AB68" s="22"/>
+      <c r="AB68" s="25"/>
       <c r="AC68" s="16" t="s">
         <v>128</v>
       </c>
@@ -17830,7 +17815,7 @@
       <c r="B69" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="22" t="s">
         <v>127</v>
       </c>
       <c r="D69" s="23"/>
@@ -17860,10 +17845,10 @@
       <c r="X69" s="16"/>
       <c r="Y69" s="16"/>
       <c r="Z69" s="16"/>
-      <c r="AA69" s="22" t="s">
+      <c r="AA69" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AB69" s="22"/>
+      <c r="AB69" s="25"/>
       <c r="AC69" s="16" t="s">
         <v>128</v>
       </c>
@@ -17880,7 +17865,7 @@
       <c r="B70" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="22" t="s">
         <v>127</v>
       </c>
       <c r="D70" s="23"/>
@@ -17910,10 +17895,10 @@
       <c r="X70" s="16"/>
       <c r="Y70" s="16"/>
       <c r="Z70" s="16"/>
-      <c r="AA70" s="22" t="s">
+      <c r="AA70" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB70" s="22"/>
+      <c r="AB70" s="25"/>
       <c r="AC70" s="16" t="s">
         <v>128</v>
       </c>
@@ -17930,7 +17915,7 @@
       <c r="B71" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="22" t="s">
         <v>183</v>
       </c>
       <c r="D71" s="23"/>
@@ -17980,7 +17965,7 @@
       <c r="B72" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="22" t="s">
         <v>185</v>
       </c>
       <c r="D72" s="23"/>
@@ -18030,7 +18015,7 @@
       <c r="B73" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="22" t="s">
         <v>193</v>
       </c>
       <c r="D73" s="23"/>
@@ -18078,7 +18063,7 @@
       <c r="B74" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="23"/>
@@ -18112,12 +18097,12 @@
       <c r="AB74" s="16"/>
       <c r="AC74" s="16"/>
       <c r="AD74" s="16"/>
-      <c r="AE74" s="22" t="s">
+      <c r="AE74" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AF74" s="22"/>
-      <c r="AG74" s="22"/>
-      <c r="AH74" s="22"/>
+      <c r="AF74" s="25"/>
+      <c r="AG74" s="25"/>
+      <c r="AH74" s="25"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -18126,7 +18111,7 @@
       <c r="B75" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D75" s="26"/>
@@ -18160,12 +18145,12 @@
       <c r="AB75" s="16"/>
       <c r="AC75" s="16"/>
       <c r="AD75" s="16"/>
-      <c r="AE75" s="22" t="s">
+      <c r="AE75" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AF75" s="22"/>
-      <c r="AG75" s="22"/>
-      <c r="AH75" s="22"/>
+      <c r="AF75" s="25"/>
+      <c r="AG75" s="25"/>
+      <c r="AH75" s="25"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -18174,7 +18159,7 @@
       <c r="B76" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D76" s="23"/>
@@ -18208,12 +18193,12 @@
       <c r="AB76" s="16"/>
       <c r="AC76" s="16"/>
       <c r="AD76" s="16"/>
-      <c r="AE76" s="22" t="s">
+      <c r="AE76" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AF76" s="22"/>
-      <c r="AG76" s="22"/>
-      <c r="AH76" s="22"/>
+      <c r="AF76" s="25"/>
+      <c r="AG76" s="25"/>
+      <c r="AH76" s="25"/>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -18222,7 +18207,7 @@
       <c r="B77" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D77" s="26"/>
@@ -18256,12 +18241,12 @@
       <c r="AB77" s="16"/>
       <c r="AC77" s="16"/>
       <c r="AD77" s="16"/>
-      <c r="AE77" s="22" t="s">
+      <c r="AE77" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="AF77" s="22"/>
-      <c r="AG77" s="22"/>
-      <c r="AH77" s="22"/>
+      <c r="AF77" s="25"/>
+      <c r="AG77" s="25"/>
+      <c r="AH77" s="25"/>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -18270,7 +18255,7 @@
       <c r="B78" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D78" s="23"/>
@@ -18300,12 +18285,12 @@
       <c r="X78" s="16"/>
       <c r="Y78" s="16"/>
       <c r="Z78" s="16"/>
-      <c r="AA78" s="22" t="s">
+      <c r="AA78" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AB78" s="22"/>
-      <c r="AC78" s="22"/>
-      <c r="AD78" s="22"/>
+      <c r="AB78" s="25"/>
+      <c r="AC78" s="25"/>
+      <c r="AD78" s="25"/>
       <c r="AE78" s="16"/>
       <c r="AF78" s="16"/>
       <c r="AG78" s="16"/>
@@ -18318,7 +18303,7 @@
       <c r="B79" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D79" s="23"/>
@@ -18348,12 +18333,12 @@
       <c r="X79" s="16"/>
       <c r="Y79" s="16"/>
       <c r="Z79" s="16"/>
-      <c r="AA79" s="22" t="s">
+      <c r="AA79" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AB79" s="22"/>
-      <c r="AC79" s="22"/>
-      <c r="AD79" s="22"/>
+      <c r="AB79" s="25"/>
+      <c r="AC79" s="25"/>
+      <c r="AD79" s="25"/>
       <c r="AE79" s="16"/>
       <c r="AF79" s="16"/>
       <c r="AG79" s="16"/>
@@ -18366,7 +18351,7 @@
       <c r="B80" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D80" s="23"/>
@@ -18398,16 +18383,16 @@
       <c r="X80" s="16"/>
       <c r="Y80" s="16"/>
       <c r="Z80" s="16"/>
-      <c r="AA80" s="22" t="s">
+      <c r="AA80" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="AB80" s="22"/>
-      <c r="AC80" s="22"/>
-      <c r="AD80" s="22"/>
-      <c r="AE80" s="22"/>
-      <c r="AF80" s="22"/>
-      <c r="AG80" s="22"/>
-      <c r="AH80" s="22"/>
+      <c r="AB80" s="25"/>
+      <c r="AC80" s="25"/>
+      <c r="AD80" s="25"/>
+      <c r="AE80" s="25"/>
+      <c r="AF80" s="25"/>
+      <c r="AG80" s="25"/>
+      <c r="AH80" s="25"/>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -18416,7 +18401,7 @@
       <c r="B81" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D81" s="23"/>
@@ -18448,16 +18433,16 @@
       <c r="X81" s="16"/>
       <c r="Y81" s="16"/>
       <c r="Z81" s="16"/>
-      <c r="AA81" s="22" t="s">
+      <c r="AA81" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="AB81" s="22"/>
-      <c r="AC81" s="22"/>
-      <c r="AD81" s="22"/>
-      <c r="AE81" s="22"/>
-      <c r="AF81" s="22"/>
-      <c r="AG81" s="22"/>
-      <c r="AH81" s="22"/>
+      <c r="AB81" s="25"/>
+      <c r="AC81" s="25"/>
+      <c r="AD81" s="25"/>
+      <c r="AE81" s="25"/>
+      <c r="AF81" s="25"/>
+      <c r="AG81" s="25"/>
+      <c r="AH81" s="25"/>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -18466,7 +18451,7 @@
       <c r="B82" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D82" s="23"/>
@@ -18498,16 +18483,16 @@
       <c r="X82" s="16"/>
       <c r="Y82" s="16"/>
       <c r="Z82" s="16"/>
-      <c r="AA82" s="22" t="s">
+      <c r="AA82" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="AB82" s="22"/>
-      <c r="AC82" s="22"/>
-      <c r="AD82" s="22"/>
-      <c r="AE82" s="22"/>
-      <c r="AF82" s="22"/>
-      <c r="AG82" s="22"/>
-      <c r="AH82" s="22"/>
+      <c r="AB82" s="25"/>
+      <c r="AC82" s="25"/>
+      <c r="AD82" s="25"/>
+      <c r="AE82" s="25"/>
+      <c r="AF82" s="25"/>
+      <c r="AG82" s="25"/>
+      <c r="AH82" s="25"/>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -18516,7 +18501,7 @@
       <c r="B83" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D83" s="23"/>
@@ -18548,16 +18533,16 @@
       <c r="X83" s="16"/>
       <c r="Y83" s="16"/>
       <c r="Z83" s="16"/>
-      <c r="AA83" s="22" t="s">
+      <c r="AA83" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AB83" s="22"/>
-      <c r="AC83" s="22"/>
-      <c r="AD83" s="22"/>
-      <c r="AE83" s="22"/>
-      <c r="AF83" s="22"/>
-      <c r="AG83" s="22"/>
-      <c r="AH83" s="22"/>
+      <c r="AB83" s="25"/>
+      <c r="AC83" s="25"/>
+      <c r="AD83" s="25"/>
+      <c r="AE83" s="25"/>
+      <c r="AF83" s="25"/>
+      <c r="AG83" s="25"/>
+      <c r="AH83" s="25"/>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -18566,7 +18551,7 @@
       <c r="B84" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D84" s="23"/>
@@ -18596,16 +18581,16 @@
       <c r="X84" s="16"/>
       <c r="Y84" s="16"/>
       <c r="Z84" s="16"/>
-      <c r="AA84" s="22" t="s">
+      <c r="AA84" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="22"/>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="22"/>
+      <c r="AB84" s="25"/>
+      <c r="AC84" s="25"/>
+      <c r="AD84" s="25"/>
+      <c r="AE84" s="25"/>
+      <c r="AF84" s="25"/>
+      <c r="AG84" s="25"/>
+      <c r="AH84" s="25"/>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -18614,7 +18599,7 @@
       <c r="B85" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D85" s="23"/>
@@ -18644,16 +18629,16 @@
       <c r="X85" s="16"/>
       <c r="Y85" s="16"/>
       <c r="Z85" s="16"/>
-      <c r="AA85" s="22" t="s">
+      <c r="AA85" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AB85" s="22"/>
-      <c r="AC85" s="22"/>
-      <c r="AD85" s="22"/>
-      <c r="AE85" s="22"/>
-      <c r="AF85" s="22"/>
-      <c r="AG85" s="22"/>
-      <c r="AH85" s="22"/>
+      <c r="AB85" s="25"/>
+      <c r="AC85" s="25"/>
+      <c r="AD85" s="25"/>
+      <c r="AE85" s="25"/>
+      <c r="AF85" s="25"/>
+      <c r="AG85" s="25"/>
+      <c r="AH85" s="25"/>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -18662,7 +18647,7 @@
       <c r="B86" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D86" s="23"/>
@@ -18692,16 +18677,16 @@
       <c r="X86" s="16"/>
       <c r="Y86" s="16"/>
       <c r="Z86" s="16"/>
-      <c r="AA86" s="22" t="s">
+      <c r="AA86" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="AB86" s="22"/>
-      <c r="AC86" s="22"/>
-      <c r="AD86" s="22"/>
-      <c r="AE86" s="22"/>
-      <c r="AF86" s="22"/>
-      <c r="AG86" s="22"/>
-      <c r="AH86" s="22"/>
+      <c r="AB86" s="25"/>
+      <c r="AC86" s="25"/>
+      <c r="AD86" s="25"/>
+      <c r="AE86" s="25"/>
+      <c r="AF86" s="25"/>
+      <c r="AG86" s="25"/>
+      <c r="AH86" s="25"/>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -18710,7 +18695,7 @@
       <c r="B87" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D87" s="23"/>
@@ -18740,16 +18725,16 @@
       <c r="X87" s="16"/>
       <c r="Y87" s="16"/>
       <c r="Z87" s="16"/>
-      <c r="AA87" s="22" t="s">
+      <c r="AA87" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="AB87" s="22"/>
-      <c r="AC87" s="22"/>
-      <c r="AD87" s="22"/>
-      <c r="AE87" s="22"/>
-      <c r="AF87" s="22"/>
-      <c r="AG87" s="22"/>
-      <c r="AH87" s="22"/>
+      <c r="AB87" s="25"/>
+      <c r="AC87" s="25"/>
+      <c r="AD87" s="25"/>
+      <c r="AE87" s="25"/>
+      <c r="AF87" s="25"/>
+      <c r="AG87" s="25"/>
+      <c r="AH87" s="25"/>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -18758,7 +18743,7 @@
       <c r="B88" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D88" s="23"/>
@@ -18788,16 +18773,16 @@
       <c r="X88" s="16"/>
       <c r="Y88" s="16"/>
       <c r="Z88" s="16"/>
-      <c r="AA88" s="22" t="s">
+      <c r="AA88" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AB88" s="22"/>
-      <c r="AC88" s="22"/>
-      <c r="AD88" s="22"/>
-      <c r="AE88" s="22"/>
-      <c r="AF88" s="22"/>
-      <c r="AG88" s="22"/>
-      <c r="AH88" s="22"/>
+      <c r="AB88" s="25"/>
+      <c r="AC88" s="25"/>
+      <c r="AD88" s="25"/>
+      <c r="AE88" s="25"/>
+      <c r="AF88" s="25"/>
+      <c r="AG88" s="25"/>
+      <c r="AH88" s="25"/>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -18806,7 +18791,7 @@
       <c r="B89" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D89" s="23"/>
@@ -18836,16 +18821,16 @@
       <c r="X89" s="16"/>
       <c r="Y89" s="16"/>
       <c r="Z89" s="16"/>
-      <c r="AA89" s="22" t="s">
+      <c r="AA89" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="AB89" s="22"/>
-      <c r="AC89" s="22"/>
-      <c r="AD89" s="22"/>
-      <c r="AE89" s="22"/>
-      <c r="AF89" s="22"/>
-      <c r="AG89" s="22"/>
-      <c r="AH89" s="22"/>
+      <c r="AB89" s="25"/>
+      <c r="AC89" s="25"/>
+      <c r="AD89" s="25"/>
+      <c r="AE89" s="25"/>
+      <c r="AF89" s="25"/>
+      <c r="AG89" s="25"/>
+      <c r="AH89" s="25"/>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -18854,7 +18839,7 @@
       <c r="B90" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D90" s="23"/>
@@ -18884,16 +18869,16 @@
       <c r="X90" s="16"/>
       <c r="Y90" s="16"/>
       <c r="Z90" s="16"/>
-      <c r="AA90" s="22" t="s">
+      <c r="AA90" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="AB90" s="22"/>
-      <c r="AC90" s="22"/>
-      <c r="AD90" s="22"/>
-      <c r="AE90" s="22"/>
-      <c r="AF90" s="22"/>
-      <c r="AG90" s="22"/>
-      <c r="AH90" s="22"/>
+      <c r="AB90" s="25"/>
+      <c r="AC90" s="25"/>
+      <c r="AD90" s="25"/>
+      <c r="AE90" s="25"/>
+      <c r="AF90" s="25"/>
+      <c r="AG90" s="25"/>
+      <c r="AH90" s="25"/>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -18902,7 +18887,7 @@
       <c r="B91" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D91" s="23"/>
@@ -18934,16 +18919,16 @@
       <c r="X91" s="16"/>
       <c r="Y91" s="16"/>
       <c r="Z91" s="16"/>
-      <c r="AA91" s="22" t="s">
+      <c r="AA91" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AB91" s="22"/>
-      <c r="AC91" s="22"/>
-      <c r="AD91" s="22"/>
-      <c r="AE91" s="22"/>
-      <c r="AF91" s="22"/>
-      <c r="AG91" s="22"/>
-      <c r="AH91" s="22"/>
+      <c r="AB91" s="25"/>
+      <c r="AC91" s="25"/>
+      <c r="AD91" s="25"/>
+      <c r="AE91" s="25"/>
+      <c r="AF91" s="25"/>
+      <c r="AG91" s="25"/>
+      <c r="AH91" s="25"/>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -18952,7 +18937,7 @@
       <c r="B92" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D92" s="23"/>
@@ -18984,16 +18969,16 @@
       <c r="X92" s="16"/>
       <c r="Y92" s="16"/>
       <c r="Z92" s="16"/>
-      <c r="AA92" s="22" t="s">
+      <c r="AA92" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AB92" s="22"/>
-      <c r="AC92" s="22"/>
-      <c r="AD92" s="22"/>
-      <c r="AE92" s="22"/>
-      <c r="AF92" s="22"/>
-      <c r="AG92" s="22"/>
-      <c r="AH92" s="22"/>
+      <c r="AB92" s="25"/>
+      <c r="AC92" s="25"/>
+      <c r="AD92" s="25"/>
+      <c r="AE92" s="25"/>
+      <c r="AF92" s="25"/>
+      <c r="AG92" s="25"/>
+      <c r="AH92" s="25"/>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -19002,7 +18987,7 @@
       <c r="B93" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D93" s="23"/>
@@ -19032,16 +19017,16 @@
       <c r="X93" s="16"/>
       <c r="Y93" s="16"/>
       <c r="Z93" s="16"/>
-      <c r="AA93" s="22" t="s">
+      <c r="AA93" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="AB93" s="22"/>
-      <c r="AC93" s="22"/>
-      <c r="AD93" s="22"/>
-      <c r="AE93" s="22"/>
-      <c r="AF93" s="22"/>
-      <c r="AG93" s="22"/>
-      <c r="AH93" s="22"/>
+      <c r="AB93" s="25"/>
+      <c r="AC93" s="25"/>
+      <c r="AD93" s="25"/>
+      <c r="AE93" s="25"/>
+      <c r="AF93" s="25"/>
+      <c r="AG93" s="25"/>
+      <c r="AH93" s="25"/>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -19050,7 +19035,7 @@
       <c r="B94" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D94" s="23"/>
@@ -19080,16 +19065,16 @@
       <c r="X94" s="16"/>
       <c r="Y94" s="16"/>
       <c r="Z94" s="16"/>
-      <c r="AA94" s="22" t="s">
+      <c r="AA94" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="AB94" s="22"/>
-      <c r="AC94" s="22"/>
-      <c r="AD94" s="22"/>
-      <c r="AE94" s="22"/>
-      <c r="AF94" s="22"/>
-      <c r="AG94" s="22"/>
-      <c r="AH94" s="22"/>
+      <c r="AB94" s="25"/>
+      <c r="AC94" s="25"/>
+      <c r="AD94" s="25"/>
+      <c r="AE94" s="25"/>
+      <c r="AF94" s="25"/>
+      <c r="AG94" s="25"/>
+      <c r="AH94" s="25"/>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -19098,7 +19083,7 @@
       <c r="B95" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D95" s="23"/>
@@ -19128,16 +19113,16 @@
       <c r="X95" s="16"/>
       <c r="Y95" s="16"/>
       <c r="Z95" s="16"/>
-      <c r="AA95" s="22" t="s">
+      <c r="AA95" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="AB95" s="22"/>
-      <c r="AC95" s="22"/>
-      <c r="AD95" s="22"/>
-      <c r="AE95" s="22"/>
-      <c r="AF95" s="22"/>
-      <c r="AG95" s="22"/>
-      <c r="AH95" s="22"/>
+      <c r="AB95" s="25"/>
+      <c r="AC95" s="25"/>
+      <c r="AD95" s="25"/>
+      <c r="AE95" s="25"/>
+      <c r="AF95" s="25"/>
+      <c r="AG95" s="25"/>
+      <c r="AH95" s="25"/>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -19146,7 +19131,7 @@
       <c r="B96" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D96" s="23"/>
@@ -19176,16 +19161,16 @@
       <c r="X96" s="16"/>
       <c r="Y96" s="16"/>
       <c r="Z96" s="16"/>
-      <c r="AA96" s="22" t="s">
+      <c r="AA96" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="AB96" s="22"/>
-      <c r="AC96" s="22"/>
-      <c r="AD96" s="22"/>
-      <c r="AE96" s="22"/>
-      <c r="AF96" s="22"/>
-      <c r="AG96" s="22"/>
-      <c r="AH96" s="22"/>
+      <c r="AB96" s="25"/>
+      <c r="AC96" s="25"/>
+      <c r="AD96" s="25"/>
+      <c r="AE96" s="25"/>
+      <c r="AF96" s="25"/>
+      <c r="AG96" s="25"/>
+      <c r="AH96" s="25"/>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -19194,7 +19179,7 @@
       <c r="B97" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D97" s="23"/>
@@ -19224,16 +19209,16 @@
       <c r="X97" s="16"/>
       <c r="Y97" s="16"/>
       <c r="Z97" s="16"/>
-      <c r="AA97" s="22" t="s">
+      <c r="AA97" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AB97" s="22"/>
-      <c r="AC97" s="22"/>
-      <c r="AD97" s="22"/>
-      <c r="AE97" s="22"/>
-      <c r="AF97" s="22"/>
-      <c r="AG97" s="22"/>
-      <c r="AH97" s="22"/>
+      <c r="AB97" s="25"/>
+      <c r="AC97" s="25"/>
+      <c r="AD97" s="25"/>
+      <c r="AE97" s="25"/>
+      <c r="AF97" s="25"/>
+      <c r="AG97" s="25"/>
+      <c r="AH97" s="25"/>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -19242,7 +19227,7 @@
       <c r="B98" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D98" s="23"/>
@@ -19272,16 +19257,16 @@
       <c r="X98" s="16"/>
       <c r="Y98" s="16"/>
       <c r="Z98" s="16"/>
-      <c r="AA98" s="22" t="s">
+      <c r="AA98" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="AB98" s="22"/>
-      <c r="AC98" s="22"/>
-      <c r="AD98" s="22"/>
-      <c r="AE98" s="22"/>
-      <c r="AF98" s="22"/>
-      <c r="AG98" s="22"/>
-      <c r="AH98" s="22"/>
+      <c r="AB98" s="25"/>
+      <c r="AC98" s="25"/>
+      <c r="AD98" s="25"/>
+      <c r="AE98" s="25"/>
+      <c r="AF98" s="25"/>
+      <c r="AG98" s="25"/>
+      <c r="AH98" s="25"/>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -19290,7 +19275,7 @@
       <c r="B99" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D99" s="23"/>
@@ -19320,16 +19305,16 @@
       <c r="X99" s="16"/>
       <c r="Y99" s="16"/>
       <c r="Z99" s="16"/>
-      <c r="AA99" s="22" t="s">
+      <c r="AA99" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AB99" s="22"/>
-      <c r="AC99" s="22"/>
-      <c r="AD99" s="22"/>
-      <c r="AE99" s="22"/>
-      <c r="AF99" s="22"/>
-      <c r="AG99" s="22"/>
-      <c r="AH99" s="22"/>
+      <c r="AB99" s="25"/>
+      <c r="AC99" s="25"/>
+      <c r="AD99" s="25"/>
+      <c r="AE99" s="25"/>
+      <c r="AF99" s="25"/>
+      <c r="AG99" s="25"/>
+      <c r="AH99" s="25"/>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -19338,7 +19323,7 @@
       <c r="B100" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D100" s="23"/>
@@ -19368,16 +19353,16 @@
       <c r="X100" s="16"/>
       <c r="Y100" s="16"/>
       <c r="Z100" s="16"/>
-      <c r="AA100" s="22" t="s">
+      <c r="AA100" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="AB100" s="22"/>
-      <c r="AC100" s="22"/>
-      <c r="AD100" s="22"/>
-      <c r="AE100" s="22"/>
-      <c r="AF100" s="22"/>
-      <c r="AG100" s="22"/>
-      <c r="AH100" s="22"/>
+      <c r="AB100" s="25"/>
+      <c r="AC100" s="25"/>
+      <c r="AD100" s="25"/>
+      <c r="AE100" s="25"/>
+      <c r="AF100" s="25"/>
+      <c r="AG100" s="25"/>
+      <c r="AH100" s="25"/>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
@@ -19386,7 +19371,7 @@
       <c r="B101" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D101" s="23"/>
@@ -19416,16 +19401,16 @@
       <c r="X101" s="16"/>
       <c r="Y101" s="16"/>
       <c r="Z101" s="16"/>
-      <c r="AA101" s="22" t="s">
+      <c r="AA101" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AB101" s="22"/>
-      <c r="AC101" s="22"/>
-      <c r="AD101" s="22"/>
-      <c r="AE101" s="22"/>
-      <c r="AF101" s="22"/>
-      <c r="AG101" s="22"/>
-      <c r="AH101" s="22"/>
+      <c r="AB101" s="25"/>
+      <c r="AC101" s="25"/>
+      <c r="AD101" s="25"/>
+      <c r="AE101" s="25"/>
+      <c r="AF101" s="25"/>
+      <c r="AG101" s="25"/>
+      <c r="AH101" s="25"/>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -19434,7 +19419,7 @@
       <c r="B102" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D102" s="23"/>
@@ -19464,16 +19449,16 @@
       <c r="X102" s="16"/>
       <c r="Y102" s="16"/>
       <c r="Z102" s="16"/>
-      <c r="AA102" s="22" t="s">
+      <c r="AA102" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="AB102" s="22"/>
-      <c r="AC102" s="22"/>
-      <c r="AD102" s="22"/>
-      <c r="AE102" s="22"/>
-      <c r="AF102" s="22"/>
-      <c r="AG102" s="22"/>
-      <c r="AH102" s="22"/>
+      <c r="AB102" s="25"/>
+      <c r="AC102" s="25"/>
+      <c r="AD102" s="25"/>
+      <c r="AE102" s="25"/>
+      <c r="AF102" s="25"/>
+      <c r="AG102" s="25"/>
+      <c r="AH102" s="25"/>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -19482,7 +19467,7 @@
       <c r="B103" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D103" s="23"/>
@@ -19512,16 +19497,16 @@
       <c r="X103" s="16"/>
       <c r="Y103" s="16"/>
       <c r="Z103" s="16"/>
-      <c r="AA103" s="22" t="s">
+      <c r="AA103" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="AB103" s="22"/>
-      <c r="AC103" s="22"/>
-      <c r="AD103" s="22"/>
-      <c r="AE103" s="22"/>
-      <c r="AF103" s="22"/>
-      <c r="AG103" s="22"/>
-      <c r="AH103" s="22"/>
+      <c r="AB103" s="25"/>
+      <c r="AC103" s="25"/>
+      <c r="AD103" s="25"/>
+      <c r="AE103" s="25"/>
+      <c r="AF103" s="25"/>
+      <c r="AG103" s="25"/>
+      <c r="AH103" s="25"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -19530,7 +19515,7 @@
       <c r="B104" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D104" s="23"/>
@@ -19560,16 +19545,16 @@
       <c r="X104" s="16"/>
       <c r="Y104" s="16"/>
       <c r="Z104" s="16"/>
-      <c r="AA104" s="22" t="s">
+      <c r="AA104" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="AB104" s="22"/>
-      <c r="AC104" s="22"/>
-      <c r="AD104" s="22"/>
-      <c r="AE104" s="22"/>
-      <c r="AF104" s="22"/>
-      <c r="AG104" s="22"/>
-      <c r="AH104" s="22"/>
+      <c r="AB104" s="25"/>
+      <c r="AC104" s="25"/>
+      <c r="AD104" s="25"/>
+      <c r="AE104" s="25"/>
+      <c r="AF104" s="25"/>
+      <c r="AG104" s="25"/>
+      <c r="AH104" s="25"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -19578,7 +19563,7 @@
       <c r="B105" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D105" s="23"/>
@@ -19608,16 +19593,16 @@
       <c r="X105" s="16"/>
       <c r="Y105" s="16"/>
       <c r="Z105" s="16"/>
-      <c r="AA105" s="22" t="s">
+      <c r="AA105" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AB105" s="22"/>
-      <c r="AC105" s="22"/>
-      <c r="AD105" s="22"/>
-      <c r="AE105" s="22"/>
-      <c r="AF105" s="22"/>
-      <c r="AG105" s="22"/>
-      <c r="AH105" s="22"/>
+      <c r="AB105" s="25"/>
+      <c r="AC105" s="25"/>
+      <c r="AD105" s="25"/>
+      <c r="AE105" s="25"/>
+      <c r="AF105" s="25"/>
+      <c r="AG105" s="25"/>
+      <c r="AH105" s="25"/>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -19626,7 +19611,7 @@
       <c r="B106" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D106" s="23"/>
@@ -19656,16 +19641,16 @@
       <c r="X106" s="16"/>
       <c r="Y106" s="16"/>
       <c r="Z106" s="16"/>
-      <c r="AA106" s="22" t="s">
+      <c r="AA106" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AB106" s="22"/>
-      <c r="AC106" s="22"/>
-      <c r="AD106" s="22"/>
-      <c r="AE106" s="22"/>
-      <c r="AF106" s="22"/>
-      <c r="AG106" s="22"/>
-      <c r="AH106" s="22"/>
+      <c r="AB106" s="25"/>
+      <c r="AC106" s="25"/>
+      <c r="AD106" s="25"/>
+      <c r="AE106" s="25"/>
+      <c r="AF106" s="25"/>
+      <c r="AG106" s="25"/>
+      <c r="AH106" s="25"/>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -19674,7 +19659,7 @@
       <c r="B107" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C107" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D107" s="23"/>
@@ -19704,16 +19689,16 @@
       <c r="X107" s="16"/>
       <c r="Y107" s="16"/>
       <c r="Z107" s="16"/>
-      <c r="AA107" s="22" t="s">
+      <c r="AA107" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="AB107" s="22"/>
-      <c r="AC107" s="22"/>
-      <c r="AD107" s="22"/>
-      <c r="AE107" s="22"/>
-      <c r="AF107" s="22"/>
-      <c r="AG107" s="22"/>
-      <c r="AH107" s="22"/>
+      <c r="AB107" s="25"/>
+      <c r="AC107" s="25"/>
+      <c r="AD107" s="25"/>
+      <c r="AE107" s="25"/>
+      <c r="AF107" s="25"/>
+      <c r="AG107" s="25"/>
+      <c r="AH107" s="25"/>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -19722,7 +19707,7 @@
       <c r="B108" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D108" s="23"/>
@@ -19752,16 +19737,16 @@
       <c r="X108" s="16"/>
       <c r="Y108" s="16"/>
       <c r="Z108" s="16"/>
-      <c r="AA108" s="22" t="s">
+      <c r="AA108" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="AB108" s="22"/>
-      <c r="AC108" s="22"/>
-      <c r="AD108" s="22"/>
-      <c r="AE108" s="22"/>
-      <c r="AF108" s="22"/>
-      <c r="AG108" s="22"/>
-      <c r="AH108" s="22"/>
+      <c r="AB108" s="25"/>
+      <c r="AC108" s="25"/>
+      <c r="AD108" s="25"/>
+      <c r="AE108" s="25"/>
+      <c r="AF108" s="25"/>
+      <c r="AG108" s="25"/>
+      <c r="AH108" s="25"/>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -19770,7 +19755,7 @@
       <c r="B109" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D109" s="23"/>
@@ -19800,16 +19785,16 @@
       <c r="X109" s="16"/>
       <c r="Y109" s="16"/>
       <c r="Z109" s="16"/>
-      <c r="AA109" s="22" t="s">
+      <c r="AA109" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="AB109" s="22"/>
-      <c r="AC109" s="22"/>
-      <c r="AD109" s="22"/>
-      <c r="AE109" s="22"/>
-      <c r="AF109" s="22"/>
-      <c r="AG109" s="22"/>
-      <c r="AH109" s="22"/>
+      <c r="AB109" s="25"/>
+      <c r="AC109" s="25"/>
+      <c r="AD109" s="25"/>
+      <c r="AE109" s="25"/>
+      <c r="AF109" s="25"/>
+      <c r="AG109" s="25"/>
+      <c r="AH109" s="25"/>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -19818,7 +19803,7 @@
       <c r="B110" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D110" s="23"/>
@@ -19848,16 +19833,16 @@
       <c r="X110" s="16"/>
       <c r="Y110" s="16"/>
       <c r="Z110" s="16"/>
-      <c r="AA110" s="22" t="s">
+      <c r="AA110" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="AB110" s="22"/>
-      <c r="AC110" s="22"/>
-      <c r="AD110" s="22"/>
-      <c r="AE110" s="22"/>
-      <c r="AF110" s="22"/>
-      <c r="AG110" s="22"/>
-      <c r="AH110" s="22"/>
+      <c r="AB110" s="25"/>
+      <c r="AC110" s="25"/>
+      <c r="AD110" s="25"/>
+      <c r="AE110" s="25"/>
+      <c r="AF110" s="25"/>
+      <c r="AG110" s="25"/>
+      <c r="AH110" s="25"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -19866,7 +19851,7 @@
       <c r="B111" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D111" s="23"/>
@@ -19896,16 +19881,16 @@
       <c r="X111" s="16"/>
       <c r="Y111" s="16"/>
       <c r="Z111" s="16"/>
-      <c r="AA111" s="22" t="s">
+      <c r="AA111" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AB111" s="22"/>
-      <c r="AC111" s="22"/>
-      <c r="AD111" s="22"/>
-      <c r="AE111" s="22"/>
-      <c r="AF111" s="22"/>
-      <c r="AG111" s="22"/>
-      <c r="AH111" s="22"/>
+      <c r="AB111" s="25"/>
+      <c r="AC111" s="25"/>
+      <c r="AD111" s="25"/>
+      <c r="AE111" s="25"/>
+      <c r="AF111" s="25"/>
+      <c r="AG111" s="25"/>
+      <c r="AH111" s="25"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -19914,7 +19899,7 @@
       <c r="B112" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D112" s="23"/>
@@ -19944,16 +19929,16 @@
       <c r="X112" s="16"/>
       <c r="Y112" s="16"/>
       <c r="Z112" s="16"/>
-      <c r="AA112" s="22" t="s">
+      <c r="AA112" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="AB112" s="22"/>
-      <c r="AC112" s="22"/>
-      <c r="AD112" s="22"/>
-      <c r="AE112" s="22"/>
-      <c r="AF112" s="22"/>
-      <c r="AG112" s="22"/>
-      <c r="AH112" s="22"/>
+      <c r="AB112" s="25"/>
+      <c r="AC112" s="25"/>
+      <c r="AD112" s="25"/>
+      <c r="AE112" s="25"/>
+      <c r="AF112" s="25"/>
+      <c r="AG112" s="25"/>
+      <c r="AH112" s="25"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -19962,7 +19947,7 @@
       <c r="B113" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D113" s="23"/>
@@ -19992,16 +19977,16 @@
       <c r="X113" s="16"/>
       <c r="Y113" s="16"/>
       <c r="Z113" s="16"/>
-      <c r="AA113" s="22" t="s">
+      <c r="AA113" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AB113" s="22"/>
-      <c r="AC113" s="22"/>
-      <c r="AD113" s="22"/>
-      <c r="AE113" s="22"/>
-      <c r="AF113" s="22"/>
-      <c r="AG113" s="22"/>
-      <c r="AH113" s="22"/>
+      <c r="AB113" s="25"/>
+      <c r="AC113" s="25"/>
+      <c r="AD113" s="25"/>
+      <c r="AE113" s="25"/>
+      <c r="AF113" s="25"/>
+      <c r="AG113" s="25"/>
+      <c r="AH113" s="25"/>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -20010,7 +19995,7 @@
       <c r="B114" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D114" s="23"/>
@@ -20040,16 +20025,16 @@
       <c r="X114" s="16"/>
       <c r="Y114" s="16"/>
       <c r="Z114" s="16"/>
-      <c r="AA114" s="22" t="s">
+      <c r="AA114" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AB114" s="22"/>
-      <c r="AC114" s="22"/>
-      <c r="AD114" s="22"/>
-      <c r="AE114" s="22"/>
-      <c r="AF114" s="22"/>
-      <c r="AG114" s="22"/>
-      <c r="AH114" s="22"/>
+      <c r="AB114" s="25"/>
+      <c r="AC114" s="25"/>
+      <c r="AD114" s="25"/>
+      <c r="AE114" s="25"/>
+      <c r="AF114" s="25"/>
+      <c r="AG114" s="25"/>
+      <c r="AH114" s="25"/>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -20058,7 +20043,7 @@
       <c r="B115" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D115" s="23"/>
@@ -20088,16 +20073,16 @@
       <c r="X115" s="16"/>
       <c r="Y115" s="16"/>
       <c r="Z115" s="16"/>
-      <c r="AA115" s="22" t="s">
+      <c r="AA115" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AB115" s="22"/>
-      <c r="AC115" s="22"/>
-      <c r="AD115" s="22"/>
-      <c r="AE115" s="22"/>
-      <c r="AF115" s="22"/>
-      <c r="AG115" s="22"/>
-      <c r="AH115" s="22"/>
+      <c r="AB115" s="25"/>
+      <c r="AC115" s="25"/>
+      <c r="AD115" s="25"/>
+      <c r="AE115" s="25"/>
+      <c r="AF115" s="25"/>
+      <c r="AG115" s="25"/>
+      <c r="AH115" s="25"/>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -20106,7 +20091,7 @@
       <c r="B116" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D116" s="23"/>
@@ -20136,16 +20121,16 @@
       <c r="X116" s="16"/>
       <c r="Y116" s="16"/>
       <c r="Z116" s="16"/>
-      <c r="AA116" s="22" t="s">
+      <c r="AA116" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="AB116" s="22"/>
-      <c r="AC116" s="22"/>
-      <c r="AD116" s="22"/>
-      <c r="AE116" s="22"/>
-      <c r="AF116" s="22"/>
-      <c r="AG116" s="22"/>
-      <c r="AH116" s="22"/>
+      <c r="AB116" s="25"/>
+      <c r="AC116" s="25"/>
+      <c r="AD116" s="25"/>
+      <c r="AE116" s="25"/>
+      <c r="AF116" s="25"/>
+      <c r="AG116" s="25"/>
+      <c r="AH116" s="25"/>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -20154,7 +20139,7 @@
       <c r="B117" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D117" s="23"/>
@@ -20184,16 +20169,16 @@
       <c r="X117" s="16"/>
       <c r="Y117" s="16"/>
       <c r="Z117" s="16"/>
-      <c r="AA117" s="22" t="s">
+      <c r="AA117" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="AB117" s="22"/>
-      <c r="AC117" s="22"/>
-      <c r="AD117" s="22"/>
-      <c r="AE117" s="22"/>
-      <c r="AF117" s="22"/>
-      <c r="AG117" s="22"/>
-      <c r="AH117" s="22"/>
+      <c r="AB117" s="25"/>
+      <c r="AC117" s="25"/>
+      <c r="AD117" s="25"/>
+      <c r="AE117" s="25"/>
+      <c r="AF117" s="25"/>
+      <c r="AG117" s="25"/>
+      <c r="AH117" s="25"/>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -20202,7 +20187,7 @@
       <c r="B118" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D118" s="23"/>
@@ -20234,16 +20219,16 @@
       <c r="X118" s="16"/>
       <c r="Y118" s="16"/>
       <c r="Z118" s="16"/>
-      <c r="AA118" s="22" t="s">
+      <c r="AA118" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AB118" s="22"/>
-      <c r="AC118" s="22"/>
-      <c r="AD118" s="22"/>
-      <c r="AE118" s="22"/>
-      <c r="AF118" s="22"/>
-      <c r="AG118" s="22"/>
-      <c r="AH118" s="22"/>
+      <c r="AB118" s="25"/>
+      <c r="AC118" s="25"/>
+      <c r="AD118" s="25"/>
+      <c r="AE118" s="25"/>
+      <c r="AF118" s="25"/>
+      <c r="AG118" s="25"/>
+      <c r="AH118" s="25"/>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -20252,7 +20237,7 @@
       <c r="B119" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="22" t="s">
         <v>199</v>
       </c>
       <c r="D119" s="23"/>
@@ -20284,16 +20269,16 @@
       <c r="X119" s="16"/>
       <c r="Y119" s="16"/>
       <c r="Z119" s="16"/>
-      <c r="AA119" s="22" t="s">
+      <c r="AA119" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="AB119" s="22"/>
-      <c r="AC119" s="22"/>
-      <c r="AD119" s="22"/>
-      <c r="AE119" s="22"/>
-      <c r="AF119" s="22"/>
-      <c r="AG119" s="22"/>
-      <c r="AH119" s="22"/>
+      <c r="AB119" s="25"/>
+      <c r="AC119" s="25"/>
+      <c r="AD119" s="25"/>
+      <c r="AE119" s="25"/>
+      <c r="AF119" s="25"/>
+      <c r="AG119" s="25"/>
+      <c r="AH119" s="25"/>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -20339,12 +20324,12 @@
       <c r="AB120" s="16"/>
       <c r="AC120" s="16"/>
       <c r="AD120" s="16"/>
-      <c r="AE120" s="22" t="s">
+      <c r="AE120" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AF120" s="22"/>
-      <c r="AG120" s="22"/>
-      <c r="AH120" s="22"/>
+      <c r="AF120" s="25"/>
+      <c r="AG120" s="25"/>
+      <c r="AH120" s="25"/>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -20390,12 +20375,12 @@
       <c r="AB121" s="16"/>
       <c r="AC121" s="16"/>
       <c r="AD121" s="16"/>
-      <c r="AE121" s="22" t="s">
+      <c r="AE121" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AF121" s="22"/>
-      <c r="AG121" s="22"/>
-      <c r="AH121" s="22"/>
+      <c r="AF121" s="25"/>
+      <c r="AG121" s="25"/>
+      <c r="AH121" s="25"/>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -20441,12 +20426,12 @@
       <c r="AB122" s="16"/>
       <c r="AC122" s="16"/>
       <c r="AD122" s="16"/>
-      <c r="AE122" s="22" t="s">
+      <c r="AE122" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AF122" s="22"/>
-      <c r="AG122" s="22"/>
-      <c r="AH122" s="22"/>
+      <c r="AF122" s="25"/>
+      <c r="AG122" s="25"/>
+      <c r="AH122" s="25"/>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -20455,7 +20440,7 @@
       <c r="B123" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="C123" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="23"/>
@@ -20493,12 +20478,12 @@
       <c r="AB123" s="18"/>
       <c r="AC123" s="18"/>
       <c r="AD123" s="18"/>
-      <c r="AE123" s="22" t="s">
+      <c r="AE123" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="AF123" s="22"/>
-      <c r="AG123" s="22"/>
-      <c r="AH123" s="22"/>
+      <c r="AF123" s="25"/>
+      <c r="AG123" s="25"/>
+      <c r="AH123" s="25"/>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -20544,12 +20529,12 @@
       <c r="AB124" s="16"/>
       <c r="AC124" s="16"/>
       <c r="AD124" s="16"/>
-      <c r="AE124" s="22" t="s">
+      <c r="AE124" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AF124" s="22"/>
-      <c r="AG124" s="22"/>
-      <c r="AH124" s="22"/>
+      <c r="AF124" s="25"/>
+      <c r="AG124" s="25"/>
+      <c r="AH124" s="25"/>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -20558,7 +20543,7 @@
       <c r="B125" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="C125" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="23"/>
@@ -20594,12 +20579,12 @@
       <c r="AB125" s="18"/>
       <c r="AC125" s="18"/>
       <c r="AD125" s="18"/>
-      <c r="AE125" s="22" t="s">
+      <c r="AE125" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AF125" s="22"/>
-      <c r="AG125" s="22"/>
-      <c r="AH125" s="22"/>
+      <c r="AF125" s="25"/>
+      <c r="AG125" s="25"/>
+      <c r="AH125" s="25"/>
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -20608,7 +20593,7 @@
       <c r="B126" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C126" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="23"/>
@@ -20646,12 +20631,12 @@
       <c r="AB126" s="18"/>
       <c r="AC126" s="18"/>
       <c r="AD126" s="18"/>
-      <c r="AE126" s="22" t="s">
+      <c r="AE126" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AF126" s="22"/>
-      <c r="AG126" s="22"/>
-      <c r="AH126" s="22"/>
+      <c r="AF126" s="25"/>
+      <c r="AG126" s="25"/>
+      <c r="AH126" s="25"/>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -20660,7 +20645,7 @@
       <c r="B127" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="C127" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="23"/>
@@ -20698,12 +20683,12 @@
       <c r="AB127" s="18"/>
       <c r="AC127" s="18"/>
       <c r="AD127" s="18"/>
-      <c r="AE127" s="22" t="s">
+      <c r="AE127" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="AF127" s="22"/>
-      <c r="AG127" s="22"/>
-      <c r="AH127" s="22"/>
+      <c r="AF127" s="25"/>
+      <c r="AG127" s="25"/>
+      <c r="AH127" s="25"/>
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -20712,7 +20697,7 @@
       <c r="B128" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="C128" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="23"/>
@@ -20748,12 +20733,12 @@
       <c r="AB128" s="18"/>
       <c r="AC128" s="18"/>
       <c r="AD128" s="18"/>
-      <c r="AE128" s="22" t="s">
+      <c r="AE128" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AF128" s="22"/>
-      <c r="AG128" s="22"/>
-      <c r="AH128" s="22"/>
+      <c r="AF128" s="25"/>
+      <c r="AG128" s="25"/>
+      <c r="AH128" s="25"/>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -20762,7 +20747,7 @@
       <c r="B129" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="23"/>
@@ -20800,12 +20785,12 @@
       <c r="AB129" s="18"/>
       <c r="AC129" s="18"/>
       <c r="AD129" s="18"/>
-      <c r="AE129" s="22" t="s">
+      <c r="AE129" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AF129" s="22"/>
-      <c r="AG129" s="22"/>
-      <c r="AH129" s="22"/>
+      <c r="AF129" s="25"/>
+      <c r="AG129" s="25"/>
+      <c r="AH129" s="25"/>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -20814,7 +20799,7 @@
       <c r="B130" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C130" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="23"/>
@@ -20852,12 +20837,12 @@
       <c r="AB130" s="18"/>
       <c r="AC130" s="18"/>
       <c r="AD130" s="18"/>
-      <c r="AE130" s="22" t="s">
+      <c r="AE130" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AF130" s="22"/>
-      <c r="AG130" s="22"/>
-      <c r="AH130" s="22"/>
+      <c r="AF130" s="25"/>
+      <c r="AG130" s="25"/>
+      <c r="AH130" s="25"/>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -20866,7 +20851,7 @@
       <c r="B131" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="23"/>
@@ -20904,12 +20889,12 @@
       <c r="AB131" s="18"/>
       <c r="AC131" s="18"/>
       <c r="AD131" s="18"/>
-      <c r="AE131" s="22" t="s">
+      <c r="AE131" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="AF131" s="22"/>
-      <c r="AG131" s="22"/>
-      <c r="AH131" s="22"/>
+      <c r="AF131" s="25"/>
+      <c r="AG131" s="25"/>
+      <c r="AH131" s="25"/>
     </row>
     <row r="132" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -20918,7 +20903,7 @@
       <c r="B132" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C132" s="25" t="s">
+      <c r="C132" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="23"/>
@@ -20954,12 +20939,12 @@
       <c r="AB132" s="18"/>
       <c r="AC132" s="18"/>
       <c r="AD132" s="18"/>
-      <c r="AE132" s="22" t="s">
+      <c r="AE132" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="AF132" s="22"/>
-      <c r="AG132" s="22"/>
-      <c r="AH132" s="22"/>
+      <c r="AF132" s="25"/>
+      <c r="AG132" s="25"/>
+      <c r="AH132" s="25"/>
     </row>
     <row r="133" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -20968,7 +20953,7 @@
       <c r="B133" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C133" s="25" t="s">
+      <c r="C133" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="23"/>
@@ -21004,12 +20989,12 @@
       <c r="AB133" s="18"/>
       <c r="AC133" s="18"/>
       <c r="AD133" s="18"/>
-      <c r="AE133" s="22" t="s">
+      <c r="AE133" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AF133" s="22"/>
-      <c r="AG133" s="22"/>
-      <c r="AH133" s="22"/>
+      <c r="AF133" s="25"/>
+      <c r="AG133" s="25"/>
+      <c r="AH133" s="25"/>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -21018,7 +21003,7 @@
       <c r="B134" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="23"/>
@@ -21056,12 +21041,12 @@
       <c r="AB134" s="18"/>
       <c r="AC134" s="18"/>
       <c r="AD134" s="18"/>
-      <c r="AE134" s="22" t="s">
+      <c r="AE134" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="AF134" s="22"/>
-      <c r="AG134" s="22"/>
-      <c r="AH134" s="22"/>
+      <c r="AF134" s="25"/>
+      <c r="AG134" s="25"/>
+      <c r="AH134" s="25"/>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -21070,7 +21055,7 @@
       <c r="B135" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C135" s="25" t="s">
+      <c r="C135" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="23"/>
@@ -21108,12 +21093,12 @@
       <c r="AB135" s="24"/>
       <c r="AC135" s="18"/>
       <c r="AD135" s="18"/>
-      <c r="AE135" s="22" t="s">
+      <c r="AE135" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="AF135" s="22"/>
-      <c r="AG135" s="22"/>
-      <c r="AH135" s="22"/>
+      <c r="AF135" s="25"/>
+      <c r="AG135" s="25"/>
+      <c r="AH135" s="25"/>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -21122,7 +21107,7 @@
       <c r="B136" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C136" s="25" t="s">
+      <c r="C136" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="23"/>
@@ -21158,12 +21143,12 @@
       <c r="AB136" s="24"/>
       <c r="AC136" s="18"/>
       <c r="AD136" s="18"/>
-      <c r="AE136" s="22" t="s">
+      <c r="AE136" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AF136" s="22"/>
-      <c r="AG136" s="22"/>
-      <c r="AH136" s="22"/>
+      <c r="AF136" s="25"/>
+      <c r="AG136" s="25"/>
+      <c r="AH136" s="25"/>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -21172,7 +21157,7 @@
       <c r="B137" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D137" s="23"/>
@@ -21208,12 +21193,12 @@
       <c r="AB137" s="24"/>
       <c r="AC137" s="18"/>
       <c r="AD137" s="18"/>
-      <c r="AE137" s="22" t="s">
+      <c r="AE137" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AF137" s="22"/>
-      <c r="AG137" s="22"/>
-      <c r="AH137" s="22"/>
+      <c r="AF137" s="25"/>
+      <c r="AG137" s="25"/>
+      <c r="AH137" s="25"/>
     </row>
     <row r="138" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -21222,7 +21207,7 @@
       <c r="B138" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D138" s="23"/>
@@ -21258,12 +21243,12 @@
       <c r="AB138" s="24"/>
       <c r="AC138" s="18"/>
       <c r="AD138" s="18"/>
-      <c r="AE138" s="22" t="s">
+      <c r="AE138" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AF138" s="22"/>
-      <c r="AG138" s="22"/>
-      <c r="AH138" s="22"/>
+      <c r="AF138" s="25"/>
+      <c r="AG138" s="25"/>
+      <c r="AH138" s="25"/>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
@@ -21272,7 +21257,7 @@
       <c r="B139" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D139" s="23"/>
@@ -21310,12 +21295,12 @@
       <c r="AB139" s="24"/>
       <c r="AC139" s="18"/>
       <c r="AD139" s="18"/>
-      <c r="AE139" s="22" t="s">
+      <c r="AE139" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="AF139" s="22"/>
-      <c r="AG139" s="22"/>
-      <c r="AH139" s="22"/>
+      <c r="AF139" s="25"/>
+      <c r="AG139" s="25"/>
+      <c r="AH139" s="25"/>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
@@ -21324,7 +21309,7 @@
       <c r="B140" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D140" s="23"/>
@@ -21360,12 +21345,12 @@
       <c r="AB140" s="24"/>
       <c r="AC140" s="18"/>
       <c r="AD140" s="18"/>
-      <c r="AE140" s="22" t="s">
+      <c r="AE140" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AF140" s="22"/>
-      <c r="AG140" s="22"/>
-      <c r="AH140" s="22"/>
+      <c r="AF140" s="25"/>
+      <c r="AG140" s="25"/>
+      <c r="AH140" s="25"/>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
@@ -21374,7 +21359,7 @@
       <c r="B141" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C141" s="25" t="s">
+      <c r="C141" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D141" s="23"/>
@@ -21410,12 +21395,12 @@
       <c r="AB141" s="24"/>
       <c r="AC141" s="18"/>
       <c r="AD141" s="18"/>
-      <c r="AE141" s="22" t="s">
+      <c r="AE141" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AF141" s="22"/>
-      <c r="AG141" s="22"/>
-      <c r="AH141" s="22"/>
+      <c r="AF141" s="25"/>
+      <c r="AG141" s="25"/>
+      <c r="AH141" s="25"/>
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -21424,7 +21409,7 @@
       <c r="B142" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C142" s="25" t="s">
+      <c r="C142" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D142" s="23"/>
@@ -21460,12 +21445,12 @@
       <c r="AB142" s="24"/>
       <c r="AC142" s="18"/>
       <c r="AD142" s="18"/>
-      <c r="AE142" s="22" t="s">
+      <c r="AE142" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AF142" s="22"/>
-      <c r="AG142" s="22"/>
-      <c r="AH142" s="22"/>
+      <c r="AF142" s="25"/>
+      <c r="AG142" s="25"/>
+      <c r="AH142" s="25"/>
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
@@ -21474,7 +21459,7 @@
       <c r="B143" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C143" s="25" t="s">
+      <c r="C143" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="23"/>
@@ -21512,12 +21497,12 @@
       <c r="AB143" s="24"/>
       <c r="AC143" s="18"/>
       <c r="AD143" s="18"/>
-      <c r="AE143" s="22" t="s">
+      <c r="AE143" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="AF143" s="22"/>
-      <c r="AG143" s="22"/>
-      <c r="AH143" s="22"/>
+      <c r="AF143" s="25"/>
+      <c r="AG143" s="25"/>
+      <c r="AH143" s="25"/>
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
@@ -21526,7 +21511,7 @@
       <c r="B144" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C144" s="25" t="s">
+      <c r="C144" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D144" s="23"/>
@@ -21564,12 +21549,12 @@
       <c r="AB144" s="24"/>
       <c r="AC144" s="18"/>
       <c r="AD144" s="18"/>
-      <c r="AE144" s="22" t="s">
+      <c r="AE144" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="AF144" s="22"/>
-      <c r="AG144" s="22"/>
-      <c r="AH144" s="22"/>
+      <c r="AF144" s="25"/>
+      <c r="AG144" s="25"/>
+      <c r="AH144" s="25"/>
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
@@ -21578,7 +21563,7 @@
       <c r="B145" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C145" s="25" t="s">
+      <c r="C145" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D145" s="23"/>
@@ -21604,12 +21589,12 @@
       <c r="X145" s="16"/>
       <c r="Y145" s="16"/>
       <c r="Z145" s="16"/>
-      <c r="AA145" s="22" t="s">
+      <c r="AA145" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AB145" s="22"/>
-      <c r="AC145" s="22"/>
-      <c r="AD145" s="22"/>
+      <c r="AB145" s="25"/>
+      <c r="AC145" s="25"/>
+      <c r="AD145" s="25"/>
       <c r="AE145" s="16"/>
       <c r="AF145" s="16"/>
       <c r="AG145" s="16"/>
@@ -21622,7 +21607,7 @@
       <c r="B146" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C146" s="25" t="s">
+      <c r="C146" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D146" s="23"/>
@@ -21648,12 +21633,12 @@
       <c r="X146" s="16"/>
       <c r="Y146" s="16"/>
       <c r="Z146" s="16"/>
-      <c r="AA146" s="22" t="s">
+      <c r="AA146" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AB146" s="22"/>
-      <c r="AC146" s="22"/>
-      <c r="AD146" s="22"/>
+      <c r="AB146" s="25"/>
+      <c r="AC146" s="25"/>
+      <c r="AD146" s="25"/>
       <c r="AE146" s="16"/>
       <c r="AF146" s="16"/>
       <c r="AG146" s="16"/>
@@ -21666,7 +21651,7 @@
       <c r="B147" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C147" s="25" t="s">
+      <c r="C147" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D147" s="23"/>
@@ -21692,12 +21677,12 @@
       <c r="X147" s="16"/>
       <c r="Y147" s="16"/>
       <c r="Z147" s="16"/>
-      <c r="AA147" s="22" t="s">
+      <c r="AA147" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AB147" s="22"/>
-      <c r="AC147" s="22"/>
-      <c r="AD147" s="22"/>
+      <c r="AB147" s="25"/>
+      <c r="AC147" s="25"/>
+      <c r="AD147" s="25"/>
       <c r="AE147" s="16"/>
       <c r="AF147" s="16"/>
       <c r="AG147" s="16"/>
@@ -21710,7 +21695,7 @@
       <c r="B148" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C148" s="25" t="s">
+      <c r="C148" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D148" s="23"/>
@@ -21736,12 +21721,12 @@
       <c r="X148" s="16"/>
       <c r="Y148" s="16"/>
       <c r="Z148" s="16"/>
-      <c r="AA148" s="22" t="s">
+      <c r="AA148" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AB148" s="22"/>
-      <c r="AC148" s="22"/>
-      <c r="AD148" s="22"/>
+      <c r="AB148" s="25"/>
+      <c r="AC148" s="25"/>
+      <c r="AD148" s="25"/>
       <c r="AE148" s="16"/>
       <c r="AF148" s="16"/>
       <c r="AG148" s="16"/>
@@ -21754,7 +21739,7 @@
       <c r="B149" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D149" s="23"/>
@@ -21786,16 +21771,16 @@
       <c r="X149" s="16"/>
       <c r="Y149" s="16"/>
       <c r="Z149" s="16"/>
-      <c r="AA149" s="22" t="s">
+      <c r="AA149" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AB149" s="22"/>
-      <c r="AC149" s="22"/>
-      <c r="AD149" s="22"/>
-      <c r="AE149" s="22"/>
-      <c r="AF149" s="22"/>
-      <c r="AG149" s="22"/>
-      <c r="AH149" s="22"/>
+      <c r="AB149" s="25"/>
+      <c r="AC149" s="25"/>
+      <c r="AD149" s="25"/>
+      <c r="AE149" s="25"/>
+      <c r="AF149" s="25"/>
+      <c r="AG149" s="25"/>
+      <c r="AH149" s="25"/>
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -21804,7 +21789,7 @@
       <c r="B150" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C150" s="25" t="s">
+      <c r="C150" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D150" s="23"/>
@@ -21836,16 +21821,16 @@
       <c r="X150" s="16"/>
       <c r="Y150" s="16"/>
       <c r="Z150" s="16"/>
-      <c r="AA150" s="22" t="s">
+      <c r="AA150" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="AB150" s="22"/>
-      <c r="AC150" s="22"/>
-      <c r="AD150" s="22"/>
-      <c r="AE150" s="22"/>
-      <c r="AF150" s="22"/>
-      <c r="AG150" s="22"/>
-      <c r="AH150" s="22"/>
+      <c r="AB150" s="25"/>
+      <c r="AC150" s="25"/>
+      <c r="AD150" s="25"/>
+      <c r="AE150" s="25"/>
+      <c r="AF150" s="25"/>
+      <c r="AG150" s="25"/>
+      <c r="AH150" s="25"/>
     </row>
     <row r="151" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
@@ -21854,7 +21839,7 @@
       <c r="B151" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C151" s="25" t="s">
+      <c r="C151" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D151" s="23"/>
@@ -21886,16 +21871,16 @@
       <c r="X151" s="16"/>
       <c r="Y151" s="16"/>
       <c r="Z151" s="16"/>
-      <c r="AA151" s="22" t="s">
+      <c r="AA151" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="AB151" s="22"/>
-      <c r="AC151" s="22"/>
-      <c r="AD151" s="22"/>
-      <c r="AE151" s="22"/>
-      <c r="AF151" s="22"/>
-      <c r="AG151" s="22"/>
-      <c r="AH151" s="22"/>
+      <c r="AB151" s="25"/>
+      <c r="AC151" s="25"/>
+      <c r="AD151" s="25"/>
+      <c r="AE151" s="25"/>
+      <c r="AF151" s="25"/>
+      <c r="AG151" s="25"/>
+      <c r="AH151" s="25"/>
     </row>
     <row r="152" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
@@ -21904,7 +21889,7 @@
       <c r="B152" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C152" s="25" t="s">
+      <c r="C152" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D152" s="23"/>
@@ -21936,16 +21921,16 @@
       <c r="X152" s="16"/>
       <c r="Y152" s="16"/>
       <c r="Z152" s="16"/>
-      <c r="AA152" s="22" t="s">
+      <c r="AA152" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="AB152" s="22"/>
-      <c r="AC152" s="22"/>
-      <c r="AD152" s="22"/>
-      <c r="AE152" s="22"/>
-      <c r="AF152" s="22"/>
-      <c r="AG152" s="22"/>
-      <c r="AH152" s="22"/>
+      <c r="AB152" s="25"/>
+      <c r="AC152" s="25"/>
+      <c r="AD152" s="25"/>
+      <c r="AE152" s="25"/>
+      <c r="AF152" s="25"/>
+      <c r="AG152" s="25"/>
+      <c r="AH152" s="25"/>
     </row>
     <row r="153" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -21954,7 +21939,7 @@
       <c r="B153" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C153" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D153" s="23"/>
@@ -21986,16 +21971,16 @@
       <c r="X153" s="16"/>
       <c r="Y153" s="16"/>
       <c r="Z153" s="16"/>
-      <c r="AA153" s="22" t="s">
+      <c r="AA153" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="AB153" s="22"/>
-      <c r="AC153" s="22"/>
-      <c r="AD153" s="22"/>
-      <c r="AE153" s="22"/>
-      <c r="AF153" s="22"/>
-      <c r="AG153" s="22"/>
-      <c r="AH153" s="22"/>
+      <c r="AB153" s="25"/>
+      <c r="AC153" s="25"/>
+      <c r="AD153" s="25"/>
+      <c r="AE153" s="25"/>
+      <c r="AF153" s="25"/>
+      <c r="AG153" s="25"/>
+      <c r="AH153" s="25"/>
     </row>
     <row r="154" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -22004,7 +21989,7 @@
       <c r="B154" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C154" s="25" t="s">
+      <c r="C154" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D154" s="23"/>
@@ -22036,16 +22021,16 @@
       <c r="X154" s="16"/>
       <c r="Y154" s="16"/>
       <c r="Z154" s="16"/>
-      <c r="AA154" s="22" t="s">
+      <c r="AA154" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="AB154" s="22"/>
-      <c r="AC154" s="22"/>
-      <c r="AD154" s="22"/>
-      <c r="AE154" s="22"/>
-      <c r="AF154" s="22"/>
-      <c r="AG154" s="22"/>
-      <c r="AH154" s="22"/>
+      <c r="AB154" s="25"/>
+      <c r="AC154" s="25"/>
+      <c r="AD154" s="25"/>
+      <c r="AE154" s="25"/>
+      <c r="AF154" s="25"/>
+      <c r="AG154" s="25"/>
+      <c r="AH154" s="25"/>
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -22054,7 +22039,7 @@
       <c r="B155" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C155" s="25" t="s">
+      <c r="C155" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D155" s="23"/>
@@ -22086,16 +22071,16 @@
       <c r="X155" s="16"/>
       <c r="Y155" s="16"/>
       <c r="Z155" s="16"/>
-      <c r="AA155" s="22" t="s">
+      <c r="AA155" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="AB155" s="22"/>
-      <c r="AC155" s="22"/>
-      <c r="AD155" s="22"/>
-      <c r="AE155" s="22"/>
-      <c r="AF155" s="22"/>
-      <c r="AG155" s="22"/>
-      <c r="AH155" s="22"/>
+      <c r="AB155" s="25"/>
+      <c r="AC155" s="25"/>
+      <c r="AD155" s="25"/>
+      <c r="AE155" s="25"/>
+      <c r="AF155" s="25"/>
+      <c r="AG155" s="25"/>
+      <c r="AH155" s="25"/>
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -22104,7 +22089,7 @@
       <c r="B156" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D156" s="23"/>
@@ -22136,16 +22121,16 @@
       <c r="X156" s="16"/>
       <c r="Y156" s="16"/>
       <c r="Z156" s="16"/>
-      <c r="AA156" s="22" t="s">
+      <c r="AA156" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="AB156" s="22"/>
-      <c r="AC156" s="22"/>
-      <c r="AD156" s="22"/>
-      <c r="AE156" s="22"/>
-      <c r="AF156" s="22"/>
-      <c r="AG156" s="22"/>
-      <c r="AH156" s="22"/>
+      <c r="AB156" s="25"/>
+      <c r="AC156" s="25"/>
+      <c r="AD156" s="25"/>
+      <c r="AE156" s="25"/>
+      <c r="AF156" s="25"/>
+      <c r="AG156" s="25"/>
+      <c r="AH156" s="25"/>
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -22154,7 +22139,7 @@
       <c r="B157" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C157" s="25" t="s">
+      <c r="C157" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D157" s="23"/>
@@ -22186,16 +22171,16 @@
       <c r="X157" s="16"/>
       <c r="Y157" s="16"/>
       <c r="Z157" s="16"/>
-      <c r="AA157" s="22" t="s">
+      <c r="AA157" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="AB157" s="22"/>
-      <c r="AC157" s="22"/>
-      <c r="AD157" s="22"/>
-      <c r="AE157" s="22"/>
-      <c r="AF157" s="22"/>
-      <c r="AG157" s="22"/>
-      <c r="AH157" s="22"/>
+      <c r="AB157" s="25"/>
+      <c r="AC157" s="25"/>
+      <c r="AD157" s="25"/>
+      <c r="AE157" s="25"/>
+      <c r="AF157" s="25"/>
+      <c r="AG157" s="25"/>
+      <c r="AH157" s="25"/>
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -22204,7 +22189,7 @@
       <c r="B158" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C158" s="25" t="s">
+      <c r="C158" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D158" s="23"/>
@@ -22236,16 +22221,16 @@
       <c r="X158" s="16"/>
       <c r="Y158" s="16"/>
       <c r="Z158" s="16"/>
-      <c r="AA158" s="22" t="s">
+      <c r="AA158" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AB158" s="22"/>
-      <c r="AC158" s="22"/>
-      <c r="AD158" s="22"/>
-      <c r="AE158" s="22"/>
-      <c r="AF158" s="22"/>
-      <c r="AG158" s="22"/>
-      <c r="AH158" s="22"/>
+      <c r="AB158" s="25"/>
+      <c r="AC158" s="25"/>
+      <c r="AD158" s="25"/>
+      <c r="AE158" s="25"/>
+      <c r="AF158" s="25"/>
+      <c r="AG158" s="25"/>
+      <c r="AH158" s="25"/>
     </row>
     <row r="159" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -22254,7 +22239,7 @@
       <c r="B159" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C159" s="25" t="s">
+      <c r="C159" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D159" s="23"/>
@@ -22286,16 +22271,16 @@
       <c r="X159" s="16"/>
       <c r="Y159" s="16"/>
       <c r="Z159" s="16"/>
-      <c r="AA159" s="22" t="s">
+      <c r="AA159" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AB159" s="22"/>
-      <c r="AC159" s="22"/>
-      <c r="AD159" s="22"/>
-      <c r="AE159" s="22"/>
-      <c r="AF159" s="22"/>
-      <c r="AG159" s="22"/>
-      <c r="AH159" s="22"/>
+      <c r="AB159" s="25"/>
+      <c r="AC159" s="25"/>
+      <c r="AD159" s="25"/>
+      <c r="AE159" s="25"/>
+      <c r="AF159" s="25"/>
+      <c r="AG159" s="25"/>
+      <c r="AH159" s="25"/>
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -22304,7 +22289,7 @@
       <c r="B160" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C160" s="25" t="s">
+      <c r="C160" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D160" s="23"/>
@@ -22336,16 +22321,16 @@
       <c r="X160" s="16"/>
       <c r="Y160" s="16"/>
       <c r="Z160" s="16"/>
-      <c r="AA160" s="22" t="s">
+      <c r="AA160" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="AB160" s="22"/>
-      <c r="AC160" s="22"/>
-      <c r="AD160" s="22"/>
-      <c r="AE160" s="22"/>
-      <c r="AF160" s="22"/>
-      <c r="AG160" s="22"/>
-      <c r="AH160" s="22"/>
+      <c r="AB160" s="25"/>
+      <c r="AC160" s="25"/>
+      <c r="AD160" s="25"/>
+      <c r="AE160" s="25"/>
+      <c r="AF160" s="25"/>
+      <c r="AG160" s="25"/>
+      <c r="AH160" s="25"/>
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -22354,7 +22339,7 @@
       <c r="B161" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C161" s="25" t="s">
+      <c r="C161" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D161" s="23"/>
@@ -22386,16 +22371,16 @@
       <c r="X161" s="16"/>
       <c r="Y161" s="16"/>
       <c r="Z161" s="16"/>
-      <c r="AA161" s="22" t="s">
+      <c r="AA161" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="AB161" s="22"/>
-      <c r="AC161" s="22"/>
-      <c r="AD161" s="22"/>
-      <c r="AE161" s="22"/>
-      <c r="AF161" s="22"/>
-      <c r="AG161" s="22"/>
-      <c r="AH161" s="22"/>
+      <c r="AB161" s="25"/>
+      <c r="AC161" s="25"/>
+      <c r="AD161" s="25"/>
+      <c r="AE161" s="25"/>
+      <c r="AF161" s="25"/>
+      <c r="AG161" s="25"/>
+      <c r="AH161" s="25"/>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
@@ -22404,7 +22389,7 @@
       <c r="B162" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C162" s="25" t="s">
+      <c r="C162" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D162" s="23"/>
@@ -22436,16 +22421,16 @@
       <c r="X162" s="16"/>
       <c r="Y162" s="16"/>
       <c r="Z162" s="16"/>
-      <c r="AA162" s="22" t="s">
+      <c r="AA162" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="AB162" s="22"/>
-      <c r="AC162" s="22"/>
-      <c r="AD162" s="22"/>
-      <c r="AE162" s="22"/>
-      <c r="AF162" s="22"/>
-      <c r="AG162" s="22"/>
-      <c r="AH162" s="22"/>
+      <c r="AB162" s="25"/>
+      <c r="AC162" s="25"/>
+      <c r="AD162" s="25"/>
+      <c r="AE162" s="25"/>
+      <c r="AF162" s="25"/>
+      <c r="AG162" s="25"/>
+      <c r="AH162" s="25"/>
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
@@ -22454,7 +22439,7 @@
       <c r="B163" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C163" s="25" t="s">
+      <c r="C163" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D163" s="23"/>
@@ -22486,16 +22471,16 @@
       <c r="X163" s="16"/>
       <c r="Y163" s="16"/>
       <c r="Z163" s="16"/>
-      <c r="AA163" s="22" t="s">
+      <c r="AA163" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="AB163" s="22"/>
-      <c r="AC163" s="22"/>
-      <c r="AD163" s="22"/>
-      <c r="AE163" s="22"/>
-      <c r="AF163" s="22"/>
-      <c r="AG163" s="22"/>
-      <c r="AH163" s="22"/>
+      <c r="AB163" s="25"/>
+      <c r="AC163" s="25"/>
+      <c r="AD163" s="25"/>
+      <c r="AE163" s="25"/>
+      <c r="AF163" s="25"/>
+      <c r="AG163" s="25"/>
+      <c r="AH163" s="25"/>
     </row>
     <row r="164" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -22504,7 +22489,7 @@
       <c r="B164" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C164" s="25" t="s">
+      <c r="C164" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D164" s="23"/>
@@ -22536,16 +22521,16 @@
       <c r="X164" s="16"/>
       <c r="Y164" s="16"/>
       <c r="Z164" s="16"/>
-      <c r="AA164" s="22" t="s">
+      <c r="AA164" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="AB164" s="22"/>
-      <c r="AC164" s="22"/>
-      <c r="AD164" s="22"/>
-      <c r="AE164" s="22"/>
-      <c r="AF164" s="22"/>
-      <c r="AG164" s="22"/>
-      <c r="AH164" s="22"/>
+      <c r="AB164" s="25"/>
+      <c r="AC164" s="25"/>
+      <c r="AD164" s="25"/>
+      <c r="AE164" s="25"/>
+      <c r="AF164" s="25"/>
+      <c r="AG164" s="25"/>
+      <c r="AH164" s="25"/>
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
@@ -22554,7 +22539,7 @@
       <c r="B165" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C165" s="25" t="s">
+      <c r="C165" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D165" s="23"/>
@@ -22586,16 +22571,16 @@
       <c r="X165" s="16"/>
       <c r="Y165" s="16"/>
       <c r="Z165" s="16"/>
-      <c r="AA165" s="22" t="s">
+      <c r="AA165" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="AB165" s="22"/>
-      <c r="AC165" s="22"/>
-      <c r="AD165" s="22"/>
-      <c r="AE165" s="22"/>
-      <c r="AF165" s="22"/>
-      <c r="AG165" s="22"/>
-      <c r="AH165" s="22"/>
+      <c r="AB165" s="25"/>
+      <c r="AC165" s="25"/>
+      <c r="AD165" s="25"/>
+      <c r="AE165" s="25"/>
+      <c r="AF165" s="25"/>
+      <c r="AG165" s="25"/>
+      <c r="AH165" s="25"/>
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
@@ -22604,7 +22589,7 @@
       <c r="B166" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="C166" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D166" s="23"/>
@@ -22636,16 +22621,16 @@
       <c r="X166" s="16"/>
       <c r="Y166" s="16"/>
       <c r="Z166" s="16"/>
-      <c r="AA166" s="22" t="s">
+      <c r="AA166" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="AB166" s="22"/>
-      <c r="AC166" s="22"/>
-      <c r="AD166" s="22"/>
-      <c r="AE166" s="22"/>
-      <c r="AF166" s="22"/>
-      <c r="AG166" s="22"/>
-      <c r="AH166" s="22"/>
+      <c r="AB166" s="25"/>
+      <c r="AC166" s="25"/>
+      <c r="AD166" s="25"/>
+      <c r="AE166" s="25"/>
+      <c r="AF166" s="25"/>
+      <c r="AG166" s="25"/>
+      <c r="AH166" s="25"/>
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
@@ -22654,7 +22639,7 @@
       <c r="B167" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C167" s="25" t="s">
+      <c r="C167" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D167" s="23"/>
@@ -22686,16 +22671,16 @@
       <c r="X167" s="16"/>
       <c r="Y167" s="16"/>
       <c r="Z167" s="16"/>
-      <c r="AA167" s="22" t="s">
+      <c r="AA167" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AB167" s="22"/>
-      <c r="AC167" s="22"/>
-      <c r="AD167" s="22"/>
-      <c r="AE167" s="22"/>
-      <c r="AF167" s="22"/>
-      <c r="AG167" s="22"/>
-      <c r="AH167" s="22"/>
+      <c r="AB167" s="25"/>
+      <c r="AC167" s="25"/>
+      <c r="AD167" s="25"/>
+      <c r="AE167" s="25"/>
+      <c r="AF167" s="25"/>
+      <c r="AG167" s="25"/>
+      <c r="AH167" s="25"/>
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -22704,7 +22689,7 @@
       <c r="B168" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C168" s="25" t="s">
+      <c r="C168" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D168" s="23"/>
@@ -22736,16 +22721,16 @@
       <c r="X168" s="16"/>
       <c r="Y168" s="16"/>
       <c r="Z168" s="16"/>
-      <c r="AA168" s="22" t="s">
+      <c r="AA168" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="AB168" s="22"/>
-      <c r="AC168" s="22"/>
-      <c r="AD168" s="22"/>
-      <c r="AE168" s="22"/>
-      <c r="AF168" s="22"/>
-      <c r="AG168" s="22"/>
-      <c r="AH168" s="22"/>
+      <c r="AB168" s="25"/>
+      <c r="AC168" s="25"/>
+      <c r="AD168" s="25"/>
+      <c r="AE168" s="25"/>
+      <c r="AF168" s="25"/>
+      <c r="AG168" s="25"/>
+      <c r="AH168" s="25"/>
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
@@ -22754,7 +22739,7 @@
       <c r="B169" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C169" s="25" t="s">
+      <c r="C169" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D169" s="23"/>
@@ -22786,16 +22771,16 @@
       <c r="X169" s="16"/>
       <c r="Y169" s="16"/>
       <c r="Z169" s="16"/>
-      <c r="AA169" s="22" t="s">
+      <c r="AA169" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AB169" s="22"/>
-      <c r="AC169" s="22"/>
-      <c r="AD169" s="22"/>
-      <c r="AE169" s="22"/>
-      <c r="AF169" s="22"/>
-      <c r="AG169" s="22"/>
-      <c r="AH169" s="22"/>
+      <c r="AB169" s="25"/>
+      <c r="AC169" s="25"/>
+      <c r="AD169" s="25"/>
+      <c r="AE169" s="25"/>
+      <c r="AF169" s="25"/>
+      <c r="AG169" s="25"/>
+      <c r="AH169" s="25"/>
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
@@ -22804,7 +22789,7 @@
       <c r="B170" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C170" s="25" t="s">
+      <c r="C170" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D170" s="23"/>
@@ -22836,16 +22821,16 @@
       <c r="X170" s="16"/>
       <c r="Y170" s="16"/>
       <c r="Z170" s="16"/>
-      <c r="AA170" s="22" t="s">
+      <c r="AA170" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AB170" s="22"/>
-      <c r="AC170" s="22"/>
-      <c r="AD170" s="22"/>
-      <c r="AE170" s="22"/>
-      <c r="AF170" s="22"/>
-      <c r="AG170" s="22"/>
-      <c r="AH170" s="22"/>
+      <c r="AB170" s="25"/>
+      <c r="AC170" s="25"/>
+      <c r="AD170" s="25"/>
+      <c r="AE170" s="25"/>
+      <c r="AF170" s="25"/>
+      <c r="AG170" s="25"/>
+      <c r="AH170" s="25"/>
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
@@ -22854,7 +22839,7 @@
       <c r="B171" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D171" s="23"/>
@@ -22886,16 +22871,16 @@
       <c r="X171" s="16"/>
       <c r="Y171" s="16"/>
       <c r="Z171" s="16"/>
-      <c r="AA171" s="22" t="s">
+      <c r="AA171" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AB171" s="22"/>
-      <c r="AC171" s="22"/>
-      <c r="AD171" s="22"/>
-      <c r="AE171" s="22"/>
-      <c r="AF171" s="22"/>
-      <c r="AG171" s="22"/>
-      <c r="AH171" s="22"/>
+      <c r="AB171" s="25"/>
+      <c r="AC171" s="25"/>
+      <c r="AD171" s="25"/>
+      <c r="AE171" s="25"/>
+      <c r="AF171" s="25"/>
+      <c r="AG171" s="25"/>
+      <c r="AH171" s="25"/>
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
@@ -22904,7 +22889,7 @@
       <c r="B172" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C172" s="25" t="s">
+      <c r="C172" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D172" s="23"/>
@@ -22936,16 +22921,16 @@
       <c r="X172" s="16"/>
       <c r="Y172" s="16"/>
       <c r="Z172" s="16"/>
-      <c r="AA172" s="22" t="s">
+      <c r="AA172" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AB172" s="22"/>
-      <c r="AC172" s="22"/>
-      <c r="AD172" s="22"/>
-      <c r="AE172" s="22"/>
-      <c r="AF172" s="22"/>
-      <c r="AG172" s="22"/>
-      <c r="AH172" s="22"/>
+      <c r="AB172" s="25"/>
+      <c r="AC172" s="25"/>
+      <c r="AD172" s="25"/>
+      <c r="AE172" s="25"/>
+      <c r="AF172" s="25"/>
+      <c r="AG172" s="25"/>
+      <c r="AH172" s="25"/>
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
@@ -22954,7 +22939,7 @@
       <c r="B173" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C173" s="25" t="s">
+      <c r="C173" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D173" s="23"/>
@@ -22986,16 +22971,16 @@
       <c r="X173" s="16"/>
       <c r="Y173" s="16"/>
       <c r="Z173" s="16"/>
-      <c r="AA173" s="22" t="s">
+      <c r="AA173" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AB173" s="22"/>
-      <c r="AC173" s="22"/>
-      <c r="AD173" s="22"/>
-      <c r="AE173" s="22"/>
-      <c r="AF173" s="22"/>
-      <c r="AG173" s="22"/>
-      <c r="AH173" s="22"/>
+      <c r="AB173" s="25"/>
+      <c r="AC173" s="25"/>
+      <c r="AD173" s="25"/>
+      <c r="AE173" s="25"/>
+      <c r="AF173" s="25"/>
+      <c r="AG173" s="25"/>
+      <c r="AH173" s="25"/>
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
@@ -23004,7 +22989,7 @@
       <c r="B174" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C174" s="25" t="s">
+      <c r="C174" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D174" s="23"/>
@@ -23036,16 +23021,16 @@
       <c r="X174" s="16"/>
       <c r="Y174" s="16"/>
       <c r="Z174" s="16"/>
-      <c r="AA174" s="22" t="s">
+      <c r="AA174" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AB174" s="22"/>
-      <c r="AC174" s="22"/>
-      <c r="AD174" s="22"/>
-      <c r="AE174" s="22"/>
-      <c r="AF174" s="22"/>
-      <c r="AG174" s="22"/>
-      <c r="AH174" s="22"/>
+      <c r="AB174" s="25"/>
+      <c r="AC174" s="25"/>
+      <c r="AD174" s="25"/>
+      <c r="AE174" s="25"/>
+      <c r="AF174" s="25"/>
+      <c r="AG174" s="25"/>
+      <c r="AH174" s="25"/>
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
@@ -23054,7 +23039,7 @@
       <c r="B175" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C175" s="25" t="s">
+      <c r="C175" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D175" s="23"/>
@@ -23086,16 +23071,16 @@
       <c r="X175" s="16"/>
       <c r="Y175" s="16"/>
       <c r="Z175" s="16"/>
-      <c r="AA175" s="22" t="s">
+      <c r="AA175" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AB175" s="22"/>
-      <c r="AC175" s="22"/>
-      <c r="AD175" s="22"/>
-      <c r="AE175" s="22"/>
-      <c r="AF175" s="22"/>
-      <c r="AG175" s="22"/>
-      <c r="AH175" s="22"/>
+      <c r="AB175" s="25"/>
+      <c r="AC175" s="25"/>
+      <c r="AD175" s="25"/>
+      <c r="AE175" s="25"/>
+      <c r="AF175" s="25"/>
+      <c r="AG175" s="25"/>
+      <c r="AH175" s="25"/>
     </row>
     <row r="176" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
@@ -23104,7 +23089,7 @@
       <c r="B176" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C176" s="25" t="s">
+      <c r="C176" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D176" s="23"/>
@@ -23136,16 +23121,16 @@
       <c r="X176" s="16"/>
       <c r="Y176" s="16"/>
       <c r="Z176" s="16"/>
-      <c r="AA176" s="22" t="s">
+      <c r="AA176" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="AB176" s="22"/>
-      <c r="AC176" s="22"/>
-      <c r="AD176" s="22"/>
-      <c r="AE176" s="22"/>
-      <c r="AF176" s="22"/>
-      <c r="AG176" s="22"/>
-      <c r="AH176" s="22"/>
+      <c r="AB176" s="25"/>
+      <c r="AC176" s="25"/>
+      <c r="AD176" s="25"/>
+      <c r="AE176" s="25"/>
+      <c r="AF176" s="25"/>
+      <c r="AG176" s="25"/>
+      <c r="AH176" s="25"/>
     </row>
     <row r="177" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
@@ -23154,7 +23139,7 @@
       <c r="B177" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D177" s="23"/>
@@ -23186,16 +23171,16 @@
       <c r="X177" s="16"/>
       <c r="Y177" s="16"/>
       <c r="Z177" s="16"/>
-      <c r="AA177" s="22" t="s">
+      <c r="AA177" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AB177" s="22"/>
-      <c r="AC177" s="22"/>
-      <c r="AD177" s="22"/>
-      <c r="AE177" s="22"/>
-      <c r="AF177" s="22"/>
-      <c r="AG177" s="22"/>
-      <c r="AH177" s="22"/>
+      <c r="AB177" s="25"/>
+      <c r="AC177" s="25"/>
+      <c r="AD177" s="25"/>
+      <c r="AE177" s="25"/>
+      <c r="AF177" s="25"/>
+      <c r="AG177" s="25"/>
+      <c r="AH177" s="25"/>
     </row>
     <row r="178" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -23204,7 +23189,7 @@
       <c r="B178" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C178" s="25" t="s">
+      <c r="C178" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D178" s="23"/>
@@ -23236,16 +23221,16 @@
       <c r="X178" s="16"/>
       <c r="Y178" s="16"/>
       <c r="Z178" s="16"/>
-      <c r="AA178" s="22" t="s">
+      <c r="AA178" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AB178" s="22"/>
-      <c r="AC178" s="22"/>
-      <c r="AD178" s="22"/>
-      <c r="AE178" s="22"/>
-      <c r="AF178" s="22"/>
-      <c r="AG178" s="22"/>
-      <c r="AH178" s="22"/>
+      <c r="AB178" s="25"/>
+      <c r="AC178" s="25"/>
+      <c r="AD178" s="25"/>
+      <c r="AE178" s="25"/>
+      <c r="AF178" s="25"/>
+      <c r="AG178" s="25"/>
+      <c r="AH178" s="25"/>
     </row>
     <row r="179" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
@@ -23254,7 +23239,7 @@
       <c r="B179" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C179" s="25" t="s">
+      <c r="C179" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D179" s="23"/>
@@ -23286,16 +23271,16 @@
       <c r="X179" s="16"/>
       <c r="Y179" s="16"/>
       <c r="Z179" s="16"/>
-      <c r="AA179" s="22" t="s">
+      <c r="AA179" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AB179" s="22"/>
-      <c r="AC179" s="22"/>
-      <c r="AD179" s="22"/>
-      <c r="AE179" s="22"/>
-      <c r="AF179" s="22"/>
-      <c r="AG179" s="22"/>
-      <c r="AH179" s="22"/>
+      <c r="AB179" s="25"/>
+      <c r="AC179" s="25"/>
+      <c r="AD179" s="25"/>
+      <c r="AE179" s="25"/>
+      <c r="AF179" s="25"/>
+      <c r="AG179" s="25"/>
+      <c r="AH179" s="25"/>
     </row>
     <row r="180" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -23304,7 +23289,7 @@
       <c r="B180" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D180" s="23"/>
@@ -23336,16 +23321,16 @@
       <c r="X180" s="16"/>
       <c r="Y180" s="16"/>
       <c r="Z180" s="16"/>
-      <c r="AA180" s="22" t="s">
+      <c r="AA180" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="AB180" s="22"/>
-      <c r="AC180" s="22"/>
-      <c r="AD180" s="22"/>
-      <c r="AE180" s="22"/>
-      <c r="AF180" s="22"/>
-      <c r="AG180" s="22"/>
-      <c r="AH180" s="22"/>
+      <c r="AB180" s="25"/>
+      <c r="AC180" s="25"/>
+      <c r="AD180" s="25"/>
+      <c r="AE180" s="25"/>
+      <c r="AF180" s="25"/>
+      <c r="AG180" s="25"/>
+      <c r="AH180" s="25"/>
     </row>
     <row r="181" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -23354,7 +23339,7 @@
       <c r="B181" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C181" s="25" t="s">
+      <c r="C181" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D181" s="23"/>
@@ -23386,16 +23371,16 @@
       <c r="X181" s="16"/>
       <c r="Y181" s="16"/>
       <c r="Z181" s="16"/>
-      <c r="AA181" s="22" t="s">
+      <c r="AA181" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="AB181" s="22"/>
-      <c r="AC181" s="22"/>
-      <c r="AD181" s="22"/>
-      <c r="AE181" s="22"/>
-      <c r="AF181" s="22"/>
-      <c r="AG181" s="22"/>
-      <c r="AH181" s="22"/>
+      <c r="AB181" s="25"/>
+      <c r="AC181" s="25"/>
+      <c r="AD181" s="25"/>
+      <c r="AE181" s="25"/>
+      <c r="AF181" s="25"/>
+      <c r="AG181" s="25"/>
+      <c r="AH181" s="25"/>
     </row>
     <row r="182" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -23404,7 +23389,7 @@
       <c r="B182" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D182" s="23"/>
@@ -23436,16 +23421,16 @@
       <c r="X182" s="16"/>
       <c r="Y182" s="16"/>
       <c r="Z182" s="16"/>
-      <c r="AA182" s="22" t="s">
+      <c r="AA182" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="AB182" s="22"/>
-      <c r="AC182" s="22"/>
-      <c r="AD182" s="22"/>
-      <c r="AE182" s="22"/>
-      <c r="AF182" s="22"/>
-      <c r="AG182" s="22"/>
-      <c r="AH182" s="22"/>
+      <c r="AB182" s="25"/>
+      <c r="AC182" s="25"/>
+      <c r="AD182" s="25"/>
+      <c r="AE182" s="25"/>
+      <c r="AF182" s="25"/>
+      <c r="AG182" s="25"/>
+      <c r="AH182" s="25"/>
     </row>
     <row r="183" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
@@ -23454,7 +23439,7 @@
       <c r="B183" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C183" s="25" t="s">
+      <c r="C183" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D183" s="23"/>
@@ -23486,16 +23471,16 @@
       <c r="X183" s="16"/>
       <c r="Y183" s="16"/>
       <c r="Z183" s="16"/>
-      <c r="AA183" s="22" t="s">
+      <c r="AA183" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="AB183" s="22"/>
-      <c r="AC183" s="22"/>
-      <c r="AD183" s="22"/>
-      <c r="AE183" s="22"/>
-      <c r="AF183" s="22"/>
-      <c r="AG183" s="22"/>
-      <c r="AH183" s="22"/>
+      <c r="AB183" s="25"/>
+      <c r="AC183" s="25"/>
+      <c r="AD183" s="25"/>
+      <c r="AE183" s="25"/>
+      <c r="AF183" s="25"/>
+      <c r="AG183" s="25"/>
+      <c r="AH183" s="25"/>
     </row>
     <row r="184" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
@@ -23504,7 +23489,7 @@
       <c r="B184" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C184" s="25" t="s">
+      <c r="C184" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D184" s="23"/>
@@ -23536,16 +23521,16 @@
       <c r="X184" s="16"/>
       <c r="Y184" s="16"/>
       <c r="Z184" s="16"/>
-      <c r="AA184" s="22" t="s">
+      <c r="AA184" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="AB184" s="22"/>
-      <c r="AC184" s="22"/>
-      <c r="AD184" s="22"/>
-      <c r="AE184" s="22"/>
-      <c r="AF184" s="22"/>
-      <c r="AG184" s="22"/>
-      <c r="AH184" s="22"/>
+      <c r="AB184" s="25"/>
+      <c r="AC184" s="25"/>
+      <c r="AD184" s="25"/>
+      <c r="AE184" s="25"/>
+      <c r="AF184" s="25"/>
+      <c r="AG184" s="25"/>
+      <c r="AH184" s="25"/>
     </row>
     <row r="185" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
@@ -23554,7 +23539,7 @@
       <c r="B185" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C185" s="25" t="s">
+      <c r="C185" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D185" s="23"/>
@@ -23586,16 +23571,16 @@
       <c r="X185" s="16"/>
       <c r="Y185" s="16"/>
       <c r="Z185" s="16"/>
-      <c r="AA185" s="22" t="s">
+      <c r="AA185" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="AB185" s="22"/>
-      <c r="AC185" s="22"/>
-      <c r="AD185" s="22"/>
-      <c r="AE185" s="22"/>
-      <c r="AF185" s="22"/>
-      <c r="AG185" s="22"/>
-      <c r="AH185" s="22"/>
+      <c r="AB185" s="25"/>
+      <c r="AC185" s="25"/>
+      <c r="AD185" s="25"/>
+      <c r="AE185" s="25"/>
+      <c r="AF185" s="25"/>
+      <c r="AG185" s="25"/>
+      <c r="AH185" s="25"/>
     </row>
     <row r="186" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
@@ -23604,7 +23589,7 @@
       <c r="B186" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C186" s="25" t="s">
+      <c r="C186" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D186" s="23"/>
@@ -23636,16 +23621,16 @@
       <c r="X186" s="16"/>
       <c r="Y186" s="16"/>
       <c r="Z186" s="16"/>
-      <c r="AA186" s="22" t="s">
+      <c r="AA186" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="AB186" s="22"/>
-      <c r="AC186" s="22"/>
-      <c r="AD186" s="22"/>
-      <c r="AE186" s="22"/>
-      <c r="AF186" s="22"/>
-      <c r="AG186" s="22"/>
-      <c r="AH186" s="22"/>
+      <c r="AB186" s="25"/>
+      <c r="AC186" s="25"/>
+      <c r="AD186" s="25"/>
+      <c r="AE186" s="25"/>
+      <c r="AF186" s="25"/>
+      <c r="AG186" s="25"/>
+      <c r="AH186" s="25"/>
     </row>
     <row r="187" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -23654,7 +23639,7 @@
       <c r="B187" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C187" s="25" t="s">
+      <c r="C187" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D187" s="23"/>
@@ -23686,16 +23671,16 @@
       <c r="X187" s="16"/>
       <c r="Y187" s="16"/>
       <c r="Z187" s="16"/>
-      <c r="AA187" s="22" t="s">
+      <c r="AA187" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="AB187" s="22"/>
-      <c r="AC187" s="22"/>
-      <c r="AD187" s="22"/>
-      <c r="AE187" s="22"/>
-      <c r="AF187" s="22"/>
-      <c r="AG187" s="22"/>
-      <c r="AH187" s="22"/>
+      <c r="AB187" s="25"/>
+      <c r="AC187" s="25"/>
+      <c r="AD187" s="25"/>
+      <c r="AE187" s="25"/>
+      <c r="AF187" s="25"/>
+      <c r="AG187" s="25"/>
+      <c r="AH187" s="25"/>
     </row>
     <row r="188" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -23704,7 +23689,7 @@
       <c r="B188" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C188" s="25" t="s">
+      <c r="C188" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D188" s="23"/>
@@ -23736,16 +23721,16 @@
       <c r="X188" s="16"/>
       <c r="Y188" s="16"/>
       <c r="Z188" s="16"/>
-      <c r="AA188" s="22" t="s">
+      <c r="AA188" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="AB188" s="22"/>
-      <c r="AC188" s="22"/>
-      <c r="AD188" s="22"/>
-      <c r="AE188" s="22"/>
-      <c r="AF188" s="22"/>
-      <c r="AG188" s="22"/>
-      <c r="AH188" s="22"/>
+      <c r="AB188" s="25"/>
+      <c r="AC188" s="25"/>
+      <c r="AD188" s="25"/>
+      <c r="AE188" s="25"/>
+      <c r="AF188" s="25"/>
+      <c r="AG188" s="25"/>
+      <c r="AH188" s="25"/>
     </row>
     <row r="189" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
@@ -23754,7 +23739,7 @@
       <c r="B189" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C189" s="25" t="s">
+      <c r="C189" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D189" s="23"/>
@@ -23786,16 +23771,16 @@
       <c r="X189" s="16"/>
       <c r="Y189" s="16"/>
       <c r="Z189" s="16"/>
-      <c r="AA189" s="22" t="s">
+      <c r="AA189" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="AB189" s="22"/>
-      <c r="AC189" s="22"/>
-      <c r="AD189" s="22"/>
-      <c r="AE189" s="22"/>
-      <c r="AF189" s="22"/>
-      <c r="AG189" s="22"/>
-      <c r="AH189" s="22"/>
+      <c r="AB189" s="25"/>
+      <c r="AC189" s="25"/>
+      <c r="AD189" s="25"/>
+      <c r="AE189" s="25"/>
+      <c r="AF189" s="25"/>
+      <c r="AG189" s="25"/>
+      <c r="AH189" s="25"/>
     </row>
     <row r="190" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
@@ -23804,7 +23789,7 @@
       <c r="B190" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C190" s="25" t="s">
+      <c r="C190" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D190" s="23"/>
@@ -23836,16 +23821,16 @@
       <c r="X190" s="16"/>
       <c r="Y190" s="16"/>
       <c r="Z190" s="16"/>
-      <c r="AA190" s="22" t="s">
+      <c r="AA190" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="AB190" s="22"/>
-      <c r="AC190" s="22"/>
-      <c r="AD190" s="22"/>
-      <c r="AE190" s="22"/>
-      <c r="AF190" s="22"/>
-      <c r="AG190" s="22"/>
-      <c r="AH190" s="22"/>
+      <c r="AB190" s="25"/>
+      <c r="AC190" s="25"/>
+      <c r="AD190" s="25"/>
+      <c r="AE190" s="25"/>
+      <c r="AF190" s="25"/>
+      <c r="AG190" s="25"/>
+      <c r="AH190" s="25"/>
     </row>
     <row r="191" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
@@ -23854,7 +23839,7 @@
       <c r="B191" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C191" s="25" t="s">
+      <c r="C191" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D191" s="23"/>
@@ -23886,16 +23871,16 @@
       <c r="X191" s="16"/>
       <c r="Y191" s="16"/>
       <c r="Z191" s="16"/>
-      <c r="AA191" s="22" t="s">
+      <c r="AA191" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="AB191" s="22"/>
-      <c r="AC191" s="22"/>
-      <c r="AD191" s="22"/>
-      <c r="AE191" s="22"/>
-      <c r="AF191" s="22"/>
-      <c r="AG191" s="22"/>
-      <c r="AH191" s="22"/>
+      <c r="AB191" s="25"/>
+      <c r="AC191" s="25"/>
+      <c r="AD191" s="25"/>
+      <c r="AE191" s="25"/>
+      <c r="AF191" s="25"/>
+      <c r="AG191" s="25"/>
+      <c r="AH191" s="25"/>
     </row>
     <row r="192" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
@@ -23904,7 +23889,7 @@
       <c r="B192" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C192" s="25" t="s">
+      <c r="C192" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D192" s="23"/>
@@ -23936,16 +23921,16 @@
       <c r="X192" s="16"/>
       <c r="Y192" s="16"/>
       <c r="Z192" s="16"/>
-      <c r="AA192" s="22" t="s">
+      <c r="AA192" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="AB192" s="22"/>
-      <c r="AC192" s="22"/>
-      <c r="AD192" s="22"/>
-      <c r="AE192" s="22"/>
-      <c r="AF192" s="22"/>
-      <c r="AG192" s="22"/>
-      <c r="AH192" s="22"/>
+      <c r="AB192" s="25"/>
+      <c r="AC192" s="25"/>
+      <c r="AD192" s="25"/>
+      <c r="AE192" s="25"/>
+      <c r="AF192" s="25"/>
+      <c r="AG192" s="25"/>
+      <c r="AH192" s="25"/>
     </row>
     <row r="193" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
@@ -23954,7 +23939,7 @@
       <c r="B193" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C193" s="25" t="s">
+      <c r="C193" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D193" s="23"/>
@@ -23986,16 +23971,16 @@
       <c r="X193" s="16"/>
       <c r="Y193" s="16"/>
       <c r="Z193" s="16"/>
-      <c r="AA193" s="22" t="s">
+      <c r="AA193" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="AB193" s="22"/>
-      <c r="AC193" s="22"/>
-      <c r="AD193" s="22"/>
-      <c r="AE193" s="22"/>
-      <c r="AF193" s="22"/>
-      <c r="AG193" s="22"/>
-      <c r="AH193" s="22"/>
+      <c r="AB193" s="25"/>
+      <c r="AC193" s="25"/>
+      <c r="AD193" s="25"/>
+      <c r="AE193" s="25"/>
+      <c r="AF193" s="25"/>
+      <c r="AG193" s="25"/>
+      <c r="AH193" s="25"/>
     </row>
     <row r="194" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
@@ -24004,7 +23989,7 @@
       <c r="B194" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C194" s="25" t="s">
+      <c r="C194" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D194" s="23"/>
@@ -24036,16 +24021,16 @@
       <c r="X194" s="16"/>
       <c r="Y194" s="16"/>
       <c r="Z194" s="16"/>
-      <c r="AA194" s="22" t="s">
+      <c r="AA194" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="AB194" s="22"/>
-      <c r="AC194" s="22"/>
-      <c r="AD194" s="22"/>
-      <c r="AE194" s="22"/>
-      <c r="AF194" s="22"/>
-      <c r="AG194" s="22"/>
-      <c r="AH194" s="22"/>
+      <c r="AB194" s="25"/>
+      <c r="AC194" s="25"/>
+      <c r="AD194" s="25"/>
+      <c r="AE194" s="25"/>
+      <c r="AF194" s="25"/>
+      <c r="AG194" s="25"/>
+      <c r="AH194" s="25"/>
     </row>
     <row r="195" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
@@ -24054,7 +24039,7 @@
       <c r="B195" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C195" s="25" t="s">
+      <c r="C195" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D195" s="23"/>
@@ -24086,16 +24071,16 @@
       <c r="X195" s="16"/>
       <c r="Y195" s="16"/>
       <c r="Z195" s="16"/>
-      <c r="AA195" s="22" t="s">
+      <c r="AA195" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="AB195" s="22"/>
-      <c r="AC195" s="22"/>
-      <c r="AD195" s="22"/>
-      <c r="AE195" s="22"/>
-      <c r="AF195" s="22"/>
-      <c r="AG195" s="22"/>
-      <c r="AH195" s="22"/>
+      <c r="AB195" s="25"/>
+      <c r="AC195" s="25"/>
+      <c r="AD195" s="25"/>
+      <c r="AE195" s="25"/>
+      <c r="AF195" s="25"/>
+      <c r="AG195" s="25"/>
+      <c r="AH195" s="25"/>
     </row>
     <row r="196" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
@@ -24104,7 +24089,7 @@
       <c r="B196" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C196" s="25" t="s">
+      <c r="C196" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D196" s="23"/>
@@ -24136,16 +24121,16 @@
       <c r="X196" s="16"/>
       <c r="Y196" s="16"/>
       <c r="Z196" s="16"/>
-      <c r="AA196" s="22" t="s">
+      <c r="AA196" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="AB196" s="22"/>
-      <c r="AC196" s="22"/>
-      <c r="AD196" s="22"/>
-      <c r="AE196" s="22"/>
-      <c r="AF196" s="22"/>
-      <c r="AG196" s="22"/>
-      <c r="AH196" s="22"/>
+      <c r="AB196" s="25"/>
+      <c r="AC196" s="25"/>
+      <c r="AD196" s="25"/>
+      <c r="AE196" s="25"/>
+      <c r="AF196" s="25"/>
+      <c r="AG196" s="25"/>
+      <c r="AH196" s="25"/>
     </row>
     <row r="197" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
@@ -24154,7 +24139,7 @@
       <c r="B197" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C197" s="25" t="s">
+      <c r="C197" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D197" s="23"/>
@@ -24186,16 +24171,16 @@
       <c r="X197" s="16"/>
       <c r="Y197" s="16"/>
       <c r="Z197" s="16"/>
-      <c r="AA197" s="22" t="s">
+      <c r="AA197" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="AB197" s="22"/>
-      <c r="AC197" s="22"/>
-      <c r="AD197" s="22"/>
-      <c r="AE197" s="22"/>
-      <c r="AF197" s="22"/>
-      <c r="AG197" s="22"/>
-      <c r="AH197" s="22"/>
+      <c r="AB197" s="25"/>
+      <c r="AC197" s="25"/>
+      <c r="AD197" s="25"/>
+      <c r="AE197" s="25"/>
+      <c r="AF197" s="25"/>
+      <c r="AG197" s="25"/>
+      <c r="AH197" s="25"/>
     </row>
     <row r="198" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
@@ -24204,7 +24189,7 @@
       <c r="B198" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C198" s="25" t="s">
+      <c r="C198" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D198" s="23"/>
@@ -24236,16 +24221,16 @@
       <c r="X198" s="16"/>
       <c r="Y198" s="16"/>
       <c r="Z198" s="16"/>
-      <c r="AA198" s="22" t="s">
+      <c r="AA198" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="AB198" s="22"/>
-      <c r="AC198" s="22"/>
-      <c r="AD198" s="22"/>
-      <c r="AE198" s="22"/>
-      <c r="AF198" s="22"/>
-      <c r="AG198" s="22"/>
-      <c r="AH198" s="22"/>
+      <c r="AB198" s="25"/>
+      <c r="AC198" s="25"/>
+      <c r="AD198" s="25"/>
+      <c r="AE198" s="25"/>
+      <c r="AF198" s="25"/>
+      <c r="AG198" s="25"/>
+      <c r="AH198" s="25"/>
     </row>
     <row r="199" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
@@ -24254,7 +24239,7 @@
       <c r="B199" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C199" s="25" t="s">
+      <c r="C199" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D199" s="23"/>
@@ -24286,16 +24271,16 @@
       <c r="X199" s="16"/>
       <c r="Y199" s="16"/>
       <c r="Z199" s="16"/>
-      <c r="AA199" s="22" t="s">
+      <c r="AA199" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="AB199" s="22"/>
-      <c r="AC199" s="22"/>
-      <c r="AD199" s="22"/>
-      <c r="AE199" s="22"/>
-      <c r="AF199" s="22"/>
-      <c r="AG199" s="22"/>
-      <c r="AH199" s="22"/>
+      <c r="AB199" s="25"/>
+      <c r="AC199" s="25"/>
+      <c r="AD199" s="25"/>
+      <c r="AE199" s="25"/>
+      <c r="AF199" s="25"/>
+      <c r="AG199" s="25"/>
+      <c r="AH199" s="25"/>
     </row>
     <row r="200" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
@@ -24304,7 +24289,7 @@
       <c r="B200" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C200" s="25" t="s">
+      <c r="C200" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D200" s="23"/>
@@ -24336,16 +24321,16 @@
       <c r="X200" s="16"/>
       <c r="Y200" s="16"/>
       <c r="Z200" s="16"/>
-      <c r="AA200" s="22" t="s">
+      <c r="AA200" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="AB200" s="22"/>
-      <c r="AC200" s="22"/>
-      <c r="AD200" s="22"/>
-      <c r="AE200" s="22"/>
-      <c r="AF200" s="22"/>
-      <c r="AG200" s="22"/>
-      <c r="AH200" s="22"/>
+      <c r="AB200" s="25"/>
+      <c r="AC200" s="25"/>
+      <c r="AD200" s="25"/>
+      <c r="AE200" s="25"/>
+      <c r="AF200" s="25"/>
+      <c r="AG200" s="25"/>
+      <c r="AH200" s="25"/>
     </row>
     <row r="201" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
@@ -24354,7 +24339,7 @@
       <c r="B201" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C201" s="25" t="s">
+      <c r="C201" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D201" s="23"/>
@@ -24386,16 +24371,16 @@
       <c r="X201" s="16"/>
       <c r="Y201" s="16"/>
       <c r="Z201" s="16"/>
-      <c r="AA201" s="22" t="s">
+      <c r="AA201" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="AB201" s="22"/>
-      <c r="AC201" s="22"/>
-      <c r="AD201" s="22"/>
-      <c r="AE201" s="22"/>
-      <c r="AF201" s="22"/>
-      <c r="AG201" s="22"/>
-      <c r="AH201" s="22"/>
+      <c r="AB201" s="25"/>
+      <c r="AC201" s="25"/>
+      <c r="AD201" s="25"/>
+      <c r="AE201" s="25"/>
+      <c r="AF201" s="25"/>
+      <c r="AG201" s="25"/>
+      <c r="AH201" s="25"/>
     </row>
     <row r="202" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
@@ -24404,7 +24389,7 @@
       <c r="B202" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C202" s="25" t="s">
+      <c r="C202" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D202" s="23"/>
@@ -24436,16 +24421,16 @@
       <c r="X202" s="16"/>
       <c r="Y202" s="16"/>
       <c r="Z202" s="16"/>
-      <c r="AA202" s="22" t="s">
+      <c r="AA202" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="AB202" s="22"/>
-      <c r="AC202" s="22"/>
-      <c r="AD202" s="22"/>
-      <c r="AE202" s="22"/>
-      <c r="AF202" s="22"/>
-      <c r="AG202" s="22"/>
-      <c r="AH202" s="22"/>
+      <c r="AB202" s="25"/>
+      <c r="AC202" s="25"/>
+      <c r="AD202" s="25"/>
+      <c r="AE202" s="25"/>
+      <c r="AF202" s="25"/>
+      <c r="AG202" s="25"/>
+      <c r="AH202" s="25"/>
     </row>
     <row r="203" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
@@ -24454,7 +24439,7 @@
       <c r="B203" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C203" s="25" t="s">
+      <c r="C203" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D203" s="23"/>
@@ -24486,16 +24471,16 @@
       <c r="X203" s="16"/>
       <c r="Y203" s="16"/>
       <c r="Z203" s="16"/>
-      <c r="AA203" s="22" t="s">
+      <c r="AA203" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="AB203" s="22"/>
-      <c r="AC203" s="22"/>
-      <c r="AD203" s="22"/>
-      <c r="AE203" s="22"/>
-      <c r="AF203" s="22"/>
-      <c r="AG203" s="22"/>
-      <c r="AH203" s="22"/>
+      <c r="AB203" s="25"/>
+      <c r="AC203" s="25"/>
+      <c r="AD203" s="25"/>
+      <c r="AE203" s="25"/>
+      <c r="AF203" s="25"/>
+      <c r="AG203" s="25"/>
+      <c r="AH203" s="25"/>
     </row>
     <row r="204" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
@@ -24504,7 +24489,7 @@
       <c r="B204" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C204" s="25" t="s">
+      <c r="C204" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D204" s="23"/>
@@ -24536,16 +24521,16 @@
       <c r="X204" s="16"/>
       <c r="Y204" s="16"/>
       <c r="Z204" s="16"/>
-      <c r="AA204" s="22" t="s">
+      <c r="AA204" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="AB204" s="22"/>
-      <c r="AC204" s="22"/>
-      <c r="AD204" s="22"/>
-      <c r="AE204" s="22"/>
-      <c r="AF204" s="22"/>
-      <c r="AG204" s="22"/>
-      <c r="AH204" s="22"/>
+      <c r="AB204" s="25"/>
+      <c r="AC204" s="25"/>
+      <c r="AD204" s="25"/>
+      <c r="AE204" s="25"/>
+      <c r="AF204" s="25"/>
+      <c r="AG204" s="25"/>
+      <c r="AH204" s="25"/>
     </row>
     <row r="205" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
@@ -24554,7 +24539,7 @@
       <c r="B205" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C205" s="25" t="s">
+      <c r="C205" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D205" s="23"/>
@@ -24586,16 +24571,16 @@
       <c r="X205" s="16"/>
       <c r="Y205" s="16"/>
       <c r="Z205" s="16"/>
-      <c r="AA205" s="22" t="s">
+      <c r="AA205" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="AB205" s="22"/>
-      <c r="AC205" s="22"/>
-      <c r="AD205" s="22"/>
-      <c r="AE205" s="22"/>
-      <c r="AF205" s="22"/>
-      <c r="AG205" s="22"/>
-      <c r="AH205" s="22"/>
+      <c r="AB205" s="25"/>
+      <c r="AC205" s="25"/>
+      <c r="AD205" s="25"/>
+      <c r="AE205" s="25"/>
+      <c r="AF205" s="25"/>
+      <c r="AG205" s="25"/>
+      <c r="AH205" s="25"/>
     </row>
     <row r="206" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
@@ -24604,7 +24589,7 @@
       <c r="B206" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C206" s="25" t="s">
+      <c r="C206" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D206" s="23"/>
@@ -24636,16 +24621,16 @@
       <c r="X206" s="16"/>
       <c r="Y206" s="16"/>
       <c r="Z206" s="16"/>
-      <c r="AA206" s="22" t="s">
+      <c r="AA206" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="AB206" s="22"/>
-      <c r="AC206" s="22"/>
-      <c r="AD206" s="22"/>
-      <c r="AE206" s="22"/>
-      <c r="AF206" s="22"/>
-      <c r="AG206" s="22"/>
-      <c r="AH206" s="22"/>
+      <c r="AB206" s="25"/>
+      <c r="AC206" s="25"/>
+      <c r="AD206" s="25"/>
+      <c r="AE206" s="25"/>
+      <c r="AF206" s="25"/>
+      <c r="AG206" s="25"/>
+      <c r="AH206" s="25"/>
     </row>
     <row r="207" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
@@ -24654,7 +24639,7 @@
       <c r="B207" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C207" s="25" t="s">
+      <c r="C207" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D207" s="23"/>
@@ -24686,16 +24671,16 @@
       <c r="X207" s="16"/>
       <c r="Y207" s="16"/>
       <c r="Z207" s="16"/>
-      <c r="AA207" s="22" t="s">
+      <c r="AA207" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="AB207" s="22"/>
-      <c r="AC207" s="22"/>
-      <c r="AD207" s="22"/>
-      <c r="AE207" s="22"/>
-      <c r="AF207" s="22"/>
-      <c r="AG207" s="22"/>
-      <c r="AH207" s="22"/>
+      <c r="AB207" s="25"/>
+      <c r="AC207" s="25"/>
+      <c r="AD207" s="25"/>
+      <c r="AE207" s="25"/>
+      <c r="AF207" s="25"/>
+      <c r="AG207" s="25"/>
+      <c r="AH207" s="25"/>
     </row>
     <row r="208" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
@@ -24704,7 +24689,7 @@
       <c r="B208" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C208" s="25" t="s">
+      <c r="C208" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D208" s="23"/>
@@ -24736,16 +24721,16 @@
       <c r="X208" s="16"/>
       <c r="Y208" s="16"/>
       <c r="Z208" s="16"/>
-      <c r="AA208" s="22" t="s">
+      <c r="AA208" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="AB208" s="22"/>
-      <c r="AC208" s="22"/>
-      <c r="AD208" s="22"/>
-      <c r="AE208" s="22"/>
-      <c r="AF208" s="22"/>
-      <c r="AG208" s="22"/>
-      <c r="AH208" s="22"/>
+      <c r="AB208" s="25"/>
+      <c r="AC208" s="25"/>
+      <c r="AD208" s="25"/>
+      <c r="AE208" s="25"/>
+      <c r="AF208" s="25"/>
+      <c r="AG208" s="25"/>
+      <c r="AH208" s="25"/>
     </row>
     <row r="209" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
@@ -24754,7 +24739,7 @@
       <c r="B209" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C209" s="25" t="s">
+      <c r="C209" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D209" s="23"/>
@@ -24786,16 +24771,16 @@
       <c r="X209" s="16"/>
       <c r="Y209" s="16"/>
       <c r="Z209" s="16"/>
-      <c r="AA209" s="22" t="s">
+      <c r="AA209" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="AB209" s="22"/>
-      <c r="AC209" s="22"/>
-      <c r="AD209" s="22"/>
-      <c r="AE209" s="22"/>
-      <c r="AF209" s="22"/>
-      <c r="AG209" s="22"/>
-      <c r="AH209" s="22"/>
+      <c r="AB209" s="25"/>
+      <c r="AC209" s="25"/>
+      <c r="AD209" s="25"/>
+      <c r="AE209" s="25"/>
+      <c r="AF209" s="25"/>
+      <c r="AG209" s="25"/>
+      <c r="AH209" s="25"/>
     </row>
     <row r="210" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
@@ -24804,7 +24789,7 @@
       <c r="B210" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C210" s="25" t="s">
+      <c r="C210" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D210" s="23"/>
@@ -24836,16 +24821,16 @@
       <c r="X210" s="16"/>
       <c r="Y210" s="16"/>
       <c r="Z210" s="16"/>
-      <c r="AA210" s="22" t="s">
+      <c r="AA210" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="AB210" s="22"/>
-      <c r="AC210" s="22"/>
-      <c r="AD210" s="22"/>
-      <c r="AE210" s="22"/>
-      <c r="AF210" s="22"/>
-      <c r="AG210" s="22"/>
-      <c r="AH210" s="22"/>
+      <c r="AB210" s="25"/>
+      <c r="AC210" s="25"/>
+      <c r="AD210" s="25"/>
+      <c r="AE210" s="25"/>
+      <c r="AF210" s="25"/>
+      <c r="AG210" s="25"/>
+      <c r="AH210" s="25"/>
     </row>
     <row r="211" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
@@ -24854,7 +24839,7 @@
       <c r="B211" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C211" s="25" t="s">
+      <c r="C211" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D211" s="23"/>
@@ -24886,16 +24871,16 @@
       <c r="X211" s="16"/>
       <c r="Y211" s="16"/>
       <c r="Z211" s="16"/>
-      <c r="AA211" s="22" t="s">
+      <c r="AA211" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="AB211" s="22"/>
-      <c r="AC211" s="22"/>
-      <c r="AD211" s="22"/>
-      <c r="AE211" s="22"/>
-      <c r="AF211" s="22"/>
-      <c r="AG211" s="22"/>
-      <c r="AH211" s="22"/>
+      <c r="AB211" s="25"/>
+      <c r="AC211" s="25"/>
+      <c r="AD211" s="25"/>
+      <c r="AE211" s="25"/>
+      <c r="AF211" s="25"/>
+      <c r="AG211" s="25"/>
+      <c r="AH211" s="25"/>
     </row>
     <row r="212" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
@@ -24904,7 +24889,7 @@
       <c r="B212" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C212" s="25" t="s">
+      <c r="C212" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D212" s="23"/>
@@ -24936,16 +24921,16 @@
       <c r="X212" s="16"/>
       <c r="Y212" s="16"/>
       <c r="Z212" s="16"/>
-      <c r="AA212" s="22" t="s">
+      <c r="AA212" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="AB212" s="22"/>
-      <c r="AC212" s="22"/>
-      <c r="AD212" s="22"/>
-      <c r="AE212" s="22"/>
-      <c r="AF212" s="22"/>
-      <c r="AG212" s="22"/>
-      <c r="AH212" s="22"/>
+      <c r="AB212" s="25"/>
+      <c r="AC212" s="25"/>
+      <c r="AD212" s="25"/>
+      <c r="AE212" s="25"/>
+      <c r="AF212" s="25"/>
+      <c r="AG212" s="25"/>
+      <c r="AH212" s="25"/>
     </row>
     <row r="213" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
@@ -24954,7 +24939,7 @@
       <c r="B213" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C213" s="25" t="s">
+      <c r="C213" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D213" s="23"/>
@@ -24986,16 +24971,16 @@
       <c r="X213" s="16"/>
       <c r="Y213" s="16"/>
       <c r="Z213" s="16"/>
-      <c r="AA213" s="22" t="s">
+      <c r="AA213" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="AB213" s="22"/>
-      <c r="AC213" s="22"/>
-      <c r="AD213" s="22"/>
-      <c r="AE213" s="22"/>
-      <c r="AF213" s="22"/>
-      <c r="AG213" s="22"/>
-      <c r="AH213" s="22"/>
+      <c r="AB213" s="25"/>
+      <c r="AC213" s="25"/>
+      <c r="AD213" s="25"/>
+      <c r="AE213" s="25"/>
+      <c r="AF213" s="25"/>
+      <c r="AG213" s="25"/>
+      <c r="AH213" s="25"/>
     </row>
     <row r="214" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
@@ -25004,7 +24989,7 @@
       <c r="B214" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C214" s="25" t="s">
+      <c r="C214" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D214" s="23"/>
@@ -25036,16 +25021,16 @@
       <c r="X214" s="16"/>
       <c r="Y214" s="16"/>
       <c r="Z214" s="16"/>
-      <c r="AA214" s="22" t="s">
+      <c r="AA214" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="AB214" s="22"/>
-      <c r="AC214" s="22"/>
-      <c r="AD214" s="22"/>
-      <c r="AE214" s="22"/>
-      <c r="AF214" s="22"/>
-      <c r="AG214" s="22"/>
-      <c r="AH214" s="22"/>
+      <c r="AB214" s="25"/>
+      <c r="AC214" s="25"/>
+      <c r="AD214" s="25"/>
+      <c r="AE214" s="25"/>
+      <c r="AF214" s="25"/>
+      <c r="AG214" s="25"/>
+      <c r="AH214" s="25"/>
     </row>
     <row r="215" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
@@ -25054,7 +25039,7 @@
       <c r="B215" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C215" s="25" t="s">
+      <c r="C215" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D215" s="23"/>
@@ -25086,16 +25071,16 @@
       <c r="X215" s="16"/>
       <c r="Y215" s="16"/>
       <c r="Z215" s="16"/>
-      <c r="AA215" s="22" t="s">
+      <c r="AA215" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="AB215" s="22"/>
-      <c r="AC215" s="22"/>
-      <c r="AD215" s="22"/>
-      <c r="AE215" s="22"/>
-      <c r="AF215" s="22"/>
-      <c r="AG215" s="22"/>
-      <c r="AH215" s="22"/>
+      <c r="AB215" s="25"/>
+      <c r="AC215" s="25"/>
+      <c r="AD215" s="25"/>
+      <c r="AE215" s="25"/>
+      <c r="AF215" s="25"/>
+      <c r="AG215" s="25"/>
+      <c r="AH215" s="25"/>
     </row>
     <row r="216" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
@@ -25104,7 +25089,7 @@
       <c r="B216" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C216" s="25" t="s">
+      <c r="C216" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D216" s="23"/>
@@ -25136,16 +25121,16 @@
       <c r="X216" s="16"/>
       <c r="Y216" s="16"/>
       <c r="Z216" s="16"/>
-      <c r="AA216" s="22" t="s">
+      <c r="AA216" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="AB216" s="22"/>
-      <c r="AC216" s="22"/>
-      <c r="AD216" s="22"/>
-      <c r="AE216" s="22"/>
-      <c r="AF216" s="22"/>
-      <c r="AG216" s="22"/>
-      <c r="AH216" s="22"/>
+      <c r="AB216" s="25"/>
+      <c r="AC216" s="25"/>
+      <c r="AD216" s="25"/>
+      <c r="AE216" s="25"/>
+      <c r="AF216" s="25"/>
+      <c r="AG216" s="25"/>
+      <c r="AH216" s="25"/>
     </row>
     <row r="217" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
@@ -25154,7 +25139,7 @@
       <c r="B217" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C217" s="25" t="s">
+      <c r="C217" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D217" s="23"/>
@@ -25186,16 +25171,16 @@
       <c r="X217" s="16"/>
       <c r="Y217" s="16"/>
       <c r="Z217" s="16"/>
-      <c r="AA217" s="22" t="s">
+      <c r="AA217" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="AB217" s="22"/>
-      <c r="AC217" s="22"/>
-      <c r="AD217" s="22"/>
-      <c r="AE217" s="22"/>
-      <c r="AF217" s="22"/>
-      <c r="AG217" s="22"/>
-      <c r="AH217" s="22"/>
+      <c r="AB217" s="25"/>
+      <c r="AC217" s="25"/>
+      <c r="AD217" s="25"/>
+      <c r="AE217" s="25"/>
+      <c r="AF217" s="25"/>
+      <c r="AG217" s="25"/>
+      <c r="AH217" s="25"/>
     </row>
     <row r="218" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
@@ -25204,7 +25189,7 @@
       <c r="B218" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C218" s="25" t="s">
+      <c r="C218" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D218" s="23"/>
@@ -25236,16 +25221,16 @@
       <c r="X218" s="16"/>
       <c r="Y218" s="16"/>
       <c r="Z218" s="16"/>
-      <c r="AA218" s="22" t="s">
+      <c r="AA218" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="AB218" s="22"/>
-      <c r="AC218" s="22"/>
-      <c r="AD218" s="22"/>
-      <c r="AE218" s="22"/>
-      <c r="AF218" s="22"/>
-      <c r="AG218" s="22"/>
-      <c r="AH218" s="22"/>
+      <c r="AB218" s="25"/>
+      <c r="AC218" s="25"/>
+      <c r="AD218" s="25"/>
+      <c r="AE218" s="25"/>
+      <c r="AF218" s="25"/>
+      <c r="AG218" s="25"/>
+      <c r="AH218" s="25"/>
     </row>
     <row r="219" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
@@ -25254,7 +25239,7 @@
       <c r="B219" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C219" s="25" t="s">
+      <c r="C219" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D219" s="23"/>
@@ -25286,16 +25271,16 @@
       <c r="X219" s="16"/>
       <c r="Y219" s="16"/>
       <c r="Z219" s="16"/>
-      <c r="AA219" s="22" t="s">
+      <c r="AA219" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="AB219" s="22"/>
-      <c r="AC219" s="22"/>
-      <c r="AD219" s="22"/>
-      <c r="AE219" s="22"/>
-      <c r="AF219" s="22"/>
-      <c r="AG219" s="22"/>
-      <c r="AH219" s="22"/>
+      <c r="AB219" s="25"/>
+      <c r="AC219" s="25"/>
+      <c r="AD219" s="25"/>
+      <c r="AE219" s="25"/>
+      <c r="AF219" s="25"/>
+      <c r="AG219" s="25"/>
+      <c r="AH219" s="25"/>
     </row>
     <row r="220" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
@@ -25304,7 +25289,7 @@
       <c r="B220" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C220" s="25" t="s">
+      <c r="C220" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D220" s="23"/>
@@ -25336,16 +25321,16 @@
       <c r="X220" s="16"/>
       <c r="Y220" s="16"/>
       <c r="Z220" s="16"/>
-      <c r="AA220" s="22" t="s">
+      <c r="AA220" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="AB220" s="22"/>
-      <c r="AC220" s="22"/>
-      <c r="AD220" s="22"/>
-      <c r="AE220" s="22"/>
-      <c r="AF220" s="22"/>
-      <c r="AG220" s="22"/>
-      <c r="AH220" s="22"/>
+      <c r="AB220" s="25"/>
+      <c r="AC220" s="25"/>
+      <c r="AD220" s="25"/>
+      <c r="AE220" s="25"/>
+      <c r="AF220" s="25"/>
+      <c r="AG220" s="25"/>
+      <c r="AH220" s="25"/>
     </row>
     <row r="221" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
@@ -25354,7 +25339,7 @@
       <c r="B221" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C221" s="25" t="s">
+      <c r="C221" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D221" s="23"/>
@@ -25386,16 +25371,16 @@
       <c r="X221" s="16"/>
       <c r="Y221" s="16"/>
       <c r="Z221" s="16"/>
-      <c r="AA221" s="22" t="s">
+      <c r="AA221" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="AB221" s="22"/>
-      <c r="AC221" s="22"/>
-      <c r="AD221" s="22"/>
-      <c r="AE221" s="22"/>
-      <c r="AF221" s="22"/>
-      <c r="AG221" s="22"/>
-      <c r="AH221" s="22"/>
+      <c r="AB221" s="25"/>
+      <c r="AC221" s="25"/>
+      <c r="AD221" s="25"/>
+      <c r="AE221" s="25"/>
+      <c r="AF221" s="25"/>
+      <c r="AG221" s="25"/>
+      <c r="AH221" s="25"/>
     </row>
     <row r="222" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
@@ -25404,7 +25389,7 @@
       <c r="B222" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C222" s="25" t="s">
+      <c r="C222" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D222" s="23"/>
@@ -25436,16 +25421,16 @@
       <c r="X222" s="16"/>
       <c r="Y222" s="16"/>
       <c r="Z222" s="16"/>
-      <c r="AA222" s="22" t="s">
+      <c r="AA222" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="AB222" s="22"/>
-      <c r="AC222" s="22"/>
-      <c r="AD222" s="22"/>
-      <c r="AE222" s="22"/>
-      <c r="AF222" s="22"/>
-      <c r="AG222" s="22"/>
-      <c r="AH222" s="22"/>
+      <c r="AB222" s="25"/>
+      <c r="AC222" s="25"/>
+      <c r="AD222" s="25"/>
+      <c r="AE222" s="25"/>
+      <c r="AF222" s="25"/>
+      <c r="AG222" s="25"/>
+      <c r="AH222" s="25"/>
     </row>
     <row r="223" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
@@ -25454,7 +25439,7 @@
       <c r="B223" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C223" s="25" t="s">
+      <c r="C223" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D223" s="23"/>
@@ -25486,16 +25471,16 @@
       <c r="X223" s="16"/>
       <c r="Y223" s="16"/>
       <c r="Z223" s="16"/>
-      <c r="AA223" s="22" t="s">
+      <c r="AA223" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="AB223" s="22"/>
-      <c r="AC223" s="22"/>
-      <c r="AD223" s="22"/>
-      <c r="AE223" s="22"/>
-      <c r="AF223" s="22"/>
-      <c r="AG223" s="22"/>
-      <c r="AH223" s="22"/>
+      <c r="AB223" s="25"/>
+      <c r="AC223" s="25"/>
+      <c r="AD223" s="25"/>
+      <c r="AE223" s="25"/>
+      <c r="AF223" s="25"/>
+      <c r="AG223" s="25"/>
+      <c r="AH223" s="25"/>
     </row>
     <row r="224" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
@@ -25504,7 +25489,7 @@
       <c r="B224" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C224" s="25" t="s">
+      <c r="C224" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D224" s="23"/>
@@ -25536,16 +25521,16 @@
       <c r="X224" s="16"/>
       <c r="Y224" s="16"/>
       <c r="Z224" s="16"/>
-      <c r="AA224" s="22" t="s">
+      <c r="AA224" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="AB224" s="22"/>
-      <c r="AC224" s="22"/>
-      <c r="AD224" s="22"/>
-      <c r="AE224" s="22"/>
-      <c r="AF224" s="22"/>
-      <c r="AG224" s="22"/>
-      <c r="AH224" s="22"/>
+      <c r="AB224" s="25"/>
+      <c r="AC224" s="25"/>
+      <c r="AD224" s="25"/>
+      <c r="AE224" s="25"/>
+      <c r="AF224" s="25"/>
+      <c r="AG224" s="25"/>
+      <c r="AH224" s="25"/>
     </row>
     <row r="225" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
@@ -25554,7 +25539,7 @@
       <c r="B225" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C225" s="25" t="s">
+      <c r="C225" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D225" s="23"/>
@@ -25586,16 +25571,16 @@
       <c r="X225" s="16"/>
       <c r="Y225" s="16"/>
       <c r="Z225" s="16"/>
-      <c r="AA225" s="22" t="s">
+      <c r="AA225" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="AB225" s="22"/>
-      <c r="AC225" s="22"/>
-      <c r="AD225" s="22"/>
-      <c r="AE225" s="22"/>
-      <c r="AF225" s="22"/>
-      <c r="AG225" s="22"/>
-      <c r="AH225" s="22"/>
+      <c r="AB225" s="25"/>
+      <c r="AC225" s="25"/>
+      <c r="AD225" s="25"/>
+      <c r="AE225" s="25"/>
+      <c r="AF225" s="25"/>
+      <c r="AG225" s="25"/>
+      <c r="AH225" s="25"/>
     </row>
     <row r="226" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
@@ -25604,7 +25589,7 @@
       <c r="B226" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C226" s="25" t="s">
+      <c r="C226" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D226" s="23"/>
@@ -25636,16 +25621,16 @@
       <c r="X226" s="16"/>
       <c r="Y226" s="16"/>
       <c r="Z226" s="16"/>
-      <c r="AA226" s="22" t="s">
+      <c r="AA226" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="AB226" s="22"/>
-      <c r="AC226" s="22"/>
-      <c r="AD226" s="22"/>
-      <c r="AE226" s="22"/>
-      <c r="AF226" s="22"/>
-      <c r="AG226" s="22"/>
-      <c r="AH226" s="22"/>
+      <c r="AB226" s="25"/>
+      <c r="AC226" s="25"/>
+      <c r="AD226" s="25"/>
+      <c r="AE226" s="25"/>
+      <c r="AF226" s="25"/>
+      <c r="AG226" s="25"/>
+      <c r="AH226" s="25"/>
     </row>
     <row r="227" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
@@ -25654,7 +25639,7 @@
       <c r="B227" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C227" s="25" t="s">
+      <c r="C227" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D227" s="23"/>
@@ -25686,16 +25671,16 @@
       <c r="X227" s="16"/>
       <c r="Y227" s="16"/>
       <c r="Z227" s="16"/>
-      <c r="AA227" s="22" t="s">
+      <c r="AA227" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="AB227" s="22"/>
-      <c r="AC227" s="22"/>
-      <c r="AD227" s="22"/>
-      <c r="AE227" s="22"/>
-      <c r="AF227" s="22"/>
-      <c r="AG227" s="22"/>
-      <c r="AH227" s="22"/>
+      <c r="AB227" s="25"/>
+      <c r="AC227" s="25"/>
+      <c r="AD227" s="25"/>
+      <c r="AE227" s="25"/>
+      <c r="AF227" s="25"/>
+      <c r="AG227" s="25"/>
+      <c r="AH227" s="25"/>
     </row>
     <row r="228" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
@@ -25704,7 +25689,7 @@
       <c r="B228" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C228" s="25" t="s">
+      <c r="C228" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D228" s="23"/>
@@ -25736,16 +25721,16 @@
       <c r="X228" s="16"/>
       <c r="Y228" s="16"/>
       <c r="Z228" s="16"/>
-      <c r="AA228" s="22" t="s">
+      <c r="AA228" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="AB228" s="22"/>
-      <c r="AC228" s="22"/>
-      <c r="AD228" s="22"/>
-      <c r="AE228" s="22"/>
-      <c r="AF228" s="22"/>
-      <c r="AG228" s="22"/>
-      <c r="AH228" s="22"/>
+      <c r="AB228" s="25"/>
+      <c r="AC228" s="25"/>
+      <c r="AD228" s="25"/>
+      <c r="AE228" s="25"/>
+      <c r="AF228" s="25"/>
+      <c r="AG228" s="25"/>
+      <c r="AH228" s="25"/>
     </row>
     <row r="229" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
@@ -25754,7 +25739,7 @@
       <c r="B229" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C229" s="25" t="s">
+      <c r="C229" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D229" s="23"/>
@@ -25786,16 +25771,16 @@
       <c r="X229" s="16"/>
       <c r="Y229" s="16"/>
       <c r="Z229" s="16"/>
-      <c r="AA229" s="22" t="s">
+      <c r="AA229" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="AB229" s="22"/>
-      <c r="AC229" s="22"/>
-      <c r="AD229" s="22"/>
-      <c r="AE229" s="22"/>
-      <c r="AF229" s="22"/>
-      <c r="AG229" s="22"/>
-      <c r="AH229" s="22"/>
+      <c r="AB229" s="25"/>
+      <c r="AC229" s="25"/>
+      <c r="AD229" s="25"/>
+      <c r="AE229" s="25"/>
+      <c r="AF229" s="25"/>
+      <c r="AG229" s="25"/>
+      <c r="AH229" s="25"/>
     </row>
     <row r="230" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -25804,7 +25789,7 @@
       <c r="B230" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C230" s="25" t="s">
+      <c r="C230" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D230" s="23"/>
@@ -25836,16 +25821,16 @@
       <c r="X230" s="16"/>
       <c r="Y230" s="16"/>
       <c r="Z230" s="16"/>
-      <c r="AA230" s="22" t="s">
+      <c r="AA230" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="AB230" s="22"/>
-      <c r="AC230" s="22"/>
-      <c r="AD230" s="22"/>
-      <c r="AE230" s="22"/>
-      <c r="AF230" s="22"/>
-      <c r="AG230" s="22"/>
-      <c r="AH230" s="22"/>
+      <c r="AB230" s="25"/>
+      <c r="AC230" s="25"/>
+      <c r="AD230" s="25"/>
+      <c r="AE230" s="25"/>
+      <c r="AF230" s="25"/>
+      <c r="AG230" s="25"/>
+      <c r="AH230" s="25"/>
     </row>
     <row r="231" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
@@ -25854,7 +25839,7 @@
       <c r="B231" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C231" s="25" t="s">
+      <c r="C231" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D231" s="23"/>
@@ -25886,16 +25871,16 @@
       <c r="X231" s="16"/>
       <c r="Y231" s="16"/>
       <c r="Z231" s="16"/>
-      <c r="AA231" s="22" t="s">
+      <c r="AA231" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="AB231" s="22"/>
-      <c r="AC231" s="22"/>
-      <c r="AD231" s="22"/>
-      <c r="AE231" s="22"/>
-      <c r="AF231" s="22"/>
-      <c r="AG231" s="22"/>
-      <c r="AH231" s="22"/>
+      <c r="AB231" s="25"/>
+      <c r="AC231" s="25"/>
+      <c r="AD231" s="25"/>
+      <c r="AE231" s="25"/>
+      <c r="AF231" s="25"/>
+      <c r="AG231" s="25"/>
+      <c r="AH231" s="25"/>
     </row>
     <row r="232" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
@@ -25904,7 +25889,7 @@
       <c r="B232" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C232" s="25" t="s">
+      <c r="C232" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D232" s="23"/>
@@ -25936,16 +25921,16 @@
       <c r="X232" s="16"/>
       <c r="Y232" s="16"/>
       <c r="Z232" s="16"/>
-      <c r="AA232" s="22" t="s">
+      <c r="AA232" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="AB232" s="22"/>
-      <c r="AC232" s="22"/>
-      <c r="AD232" s="22"/>
-      <c r="AE232" s="22"/>
-      <c r="AF232" s="22"/>
-      <c r="AG232" s="22"/>
-      <c r="AH232" s="22"/>
+      <c r="AB232" s="25"/>
+      <c r="AC232" s="25"/>
+      <c r="AD232" s="25"/>
+      <c r="AE232" s="25"/>
+      <c r="AF232" s="25"/>
+      <c r="AG232" s="25"/>
+      <c r="AH232" s="25"/>
     </row>
     <row r="233" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -25954,7 +25939,7 @@
       <c r="B233" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C233" s="25" t="s">
+      <c r="C233" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D233" s="23"/>
@@ -25986,16 +25971,16 @@
       <c r="X233" s="16"/>
       <c r="Y233" s="16"/>
       <c r="Z233" s="16"/>
-      <c r="AA233" s="22" t="s">
+      <c r="AA233" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="AB233" s="22"/>
-      <c r="AC233" s="22"/>
-      <c r="AD233" s="22"/>
-      <c r="AE233" s="22"/>
-      <c r="AF233" s="22"/>
-      <c r="AG233" s="22"/>
-      <c r="AH233" s="22"/>
+      <c r="AB233" s="25"/>
+      <c r="AC233" s="25"/>
+      <c r="AD233" s="25"/>
+      <c r="AE233" s="25"/>
+      <c r="AF233" s="25"/>
+      <c r="AG233" s="25"/>
+      <c r="AH233" s="25"/>
     </row>
     <row r="234" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
@@ -26004,7 +25989,7 @@
       <c r="B234" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C234" s="25" t="s">
+      <c r="C234" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D234" s="23"/>
@@ -26036,16 +26021,16 @@
       <c r="X234" s="16"/>
       <c r="Y234" s="16"/>
       <c r="Z234" s="16"/>
-      <c r="AA234" s="22" t="s">
+      <c r="AA234" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="AB234" s="22"/>
-      <c r="AC234" s="22"/>
-      <c r="AD234" s="22"/>
-      <c r="AE234" s="22"/>
-      <c r="AF234" s="22"/>
-      <c r="AG234" s="22"/>
-      <c r="AH234" s="22"/>
+      <c r="AB234" s="25"/>
+      <c r="AC234" s="25"/>
+      <c r="AD234" s="25"/>
+      <c r="AE234" s="25"/>
+      <c r="AF234" s="25"/>
+      <c r="AG234" s="25"/>
+      <c r="AH234" s="25"/>
     </row>
     <row r="235" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
@@ -26054,7 +26039,7 @@
       <c r="B235" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C235" s="25" t="s">
+      <c r="C235" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D235" s="23"/>
@@ -26086,16 +26071,16 @@
       <c r="X235" s="16"/>
       <c r="Y235" s="16"/>
       <c r="Z235" s="16"/>
-      <c r="AA235" s="22" t="s">
+      <c r="AA235" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="AB235" s="22"/>
-      <c r="AC235" s="22"/>
-      <c r="AD235" s="22"/>
-      <c r="AE235" s="22"/>
-      <c r="AF235" s="22"/>
-      <c r="AG235" s="22"/>
-      <c r="AH235" s="22"/>
+      <c r="AB235" s="25"/>
+      <c r="AC235" s="25"/>
+      <c r="AD235" s="25"/>
+      <c r="AE235" s="25"/>
+      <c r="AF235" s="25"/>
+      <c r="AG235" s="25"/>
+      <c r="AH235" s="25"/>
     </row>
     <row r="236" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B236" s="13"/>
@@ -26189,6 +26174,7 @@
       <c r="B260" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH235" xr:uid="{C73AE2BB-A7E9-9E43-A0B9-565D4CA03846}"/>
   <mergeCells count="1243">
     <mergeCell ref="A241:C241"/>
     <mergeCell ref="C2:AH2"/>
@@ -27091,9 +27077,6 @@
     <mergeCell ref="S16:AH16"/>
     <mergeCell ref="C23:M23"/>
     <mergeCell ref="N23:R23"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="S13:AH13"/>
     <mergeCell ref="C27:M27"/>
     <mergeCell ref="N27:R27"/>
     <mergeCell ref="S27:W27"/>
@@ -27123,9 +27106,6 @@
     <mergeCell ref="N11:R11"/>
     <mergeCell ref="N25:R25"/>
     <mergeCell ref="S25:W25"/>
-    <mergeCell ref="X25:AH25"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="N15:R15"/>
     <mergeCell ref="S15:AH15"/>
     <mergeCell ref="C18:M18"/>
     <mergeCell ref="N18:R18"/>
@@ -27153,9 +27133,11 @@
     <mergeCell ref="S52:AH52"/>
     <mergeCell ref="S23:W23"/>
     <mergeCell ref="X23:AH23"/>
-    <mergeCell ref="N65:R65"/>
-    <mergeCell ref="S65:W65"/>
-    <mergeCell ref="X65:AH65"/>
+    <mergeCell ref="N51:R51"/>
+    <mergeCell ref="S51:AH51"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="S13:AH13"/>
     <mergeCell ref="C70:H70"/>
     <mergeCell ref="I70:M70"/>
     <mergeCell ref="N70:R70"/>
@@ -27185,6 +27167,9 @@
     <mergeCell ref="S28:AH28"/>
     <mergeCell ref="S11:AH11"/>
     <mergeCell ref="C25:M25"/>
+    <mergeCell ref="X25:AH25"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="N15:R15"/>
     <mergeCell ref="AE133:AH133"/>
     <mergeCell ref="C61:H61"/>
     <mergeCell ref="I61:M61"/>
@@ -27249,11 +27234,6 @@
     <mergeCell ref="S76:W76"/>
     <mergeCell ref="X76:AD76"/>
     <mergeCell ref="AE76:AH76"/>
-    <mergeCell ref="N51:R51"/>
-    <mergeCell ref="S51:AH51"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:R36"/>
-    <mergeCell ref="S36:W36"/>
     <mergeCell ref="X36:AH36"/>
     <mergeCell ref="C49:H49"/>
     <mergeCell ref="I49:M49"/>
@@ -27281,6 +27261,11 @@
     <mergeCell ref="S55:AH55"/>
     <mergeCell ref="C65:H65"/>
     <mergeCell ref="I65:M65"/>
+    <mergeCell ref="S53:AH53"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="N65:R65"/>
+    <mergeCell ref="S65:W65"/>
+    <mergeCell ref="X65:AH65"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="I29:AH29"/>
     <mergeCell ref="C30:H30"/>
@@ -27313,13 +27298,6 @@
     <mergeCell ref="I45:AH45"/>
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="I46:AH46"/>
-    <mergeCell ref="C137:H137"/>
-    <mergeCell ref="I137:M137"/>
-    <mergeCell ref="N137:R137"/>
-    <mergeCell ref="S137:X137"/>
-    <mergeCell ref="Y137:AB137"/>
-    <mergeCell ref="AC137:AD137"/>
-    <mergeCell ref="AE136:AH136"/>
     <mergeCell ref="C142:H142"/>
     <mergeCell ref="I142:M142"/>
     <mergeCell ref="N142:R142"/>
@@ -27345,6 +27323,11 @@
     <mergeCell ref="I138:M138"/>
     <mergeCell ref="N138:R138"/>
     <mergeCell ref="S138:X138"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:AH33"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="N31:AH31"/>
     <mergeCell ref="Y138:AB138"/>
     <mergeCell ref="AC138:AD138"/>
     <mergeCell ref="AE129:AH129"/>
@@ -27362,6 +27345,21 @@
     <mergeCell ref="Y129:Z129"/>
     <mergeCell ref="AA129:AD129"/>
     <mergeCell ref="AE137:AH137"/>
+    <mergeCell ref="C137:H137"/>
+    <mergeCell ref="I137:M137"/>
+    <mergeCell ref="N137:R137"/>
+    <mergeCell ref="S137:X137"/>
+    <mergeCell ref="Y137:AB137"/>
+    <mergeCell ref="AC137:AD137"/>
+    <mergeCell ref="AE136:AH136"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:R36"/>
+    <mergeCell ref="S36:W36"/>
+    <mergeCell ref="AA120:AD120"/>
+    <mergeCell ref="AE120:AH120"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="N53:R53"/>
     <mergeCell ref="C140:H140"/>
     <mergeCell ref="I140:M140"/>
     <mergeCell ref="N140:R140"/>
@@ -27389,11 +27387,11 @@
     <mergeCell ref="I44:M44"/>
     <mergeCell ref="N44:R44"/>
     <mergeCell ref="S44:AH44"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:AH33"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="N31:AH31"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="S50:AH50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:M51"/>
     <mergeCell ref="C122:H122"/>
     <mergeCell ref="I122:M122"/>
     <mergeCell ref="N122:R122"/>
@@ -27421,18 +27419,6 @@
     <mergeCell ref="N120:R120"/>
     <mergeCell ref="S120:W120"/>
     <mergeCell ref="Y120:Z120"/>
-    <mergeCell ref="AA120:AD120"/>
-    <mergeCell ref="AE120:AH120"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="N53:R53"/>
-    <mergeCell ref="S53:AH53"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="S50:AH50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:M51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
